--- a/data/Individuals - Training.xlsx
+++ b/data/Individuals - Training.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucas/Desktop/DPTO PRACTICAS PROF/WATFORD/watford-player-development/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alberto/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4137CC9-944C-7A4C-8F46-7C35B0446326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E9F6ED-7354-0D4C-B40A-0DAED285D180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="760" windowWidth="29400" windowHeight="18400" xr2:uid="{A2D0A931-C5F6-EF44-8E19-3B892526D62A}"/>
+    <workbookView xWindow="0" yWindow="820" windowWidth="34200" windowHeight="20020" xr2:uid="{A2D0A931-C5F6-EF44-8E19-3B892526D62A}"/>
   </bookViews>
   <sheets>
     <sheet name="Training individuales" sheetId="19" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="290">
   <si>
     <t>Ryan Andrews</t>
   </si>
@@ -128,18 +128,12 @@
     <t>Finishing</t>
   </si>
   <si>
-    <t>Interview</t>
-  </si>
-  <si>
     <t>DEFENDER 1V2 FINISHING WB CROSS WB</t>
   </si>
   <si>
     <t>Improve Crossing / Stop the Cross</t>
   </si>
   <si>
-    <t>Player Card</t>
-  </si>
-  <si>
     <t>Intensity Actions</t>
   </si>
   <si>
@@ -176,9 +170,6 @@
     <t>Swansea + Sheffield Wednesday Post-Match Clips</t>
   </si>
   <si>
-    <t>Player Meeting</t>
-  </si>
-  <si>
     <t>FINISH/CONDITIONAL</t>
   </si>
   <si>
@@ -236,9 +227,6 @@
     <t>Building - Offensive Game Model</t>
   </si>
   <si>
-    <t>Player Card Meeting</t>
-  </si>
-  <si>
     <t>Body Shape + Long Passing</t>
   </si>
   <si>
@@ -248,9 +236,6 @@
     <t>Opposition Analysis</t>
   </si>
   <si>
-    <t>Oxford Post Match Clips</t>
-  </si>
-  <si>
     <t>Different Situations of a 1v1 &amp; Finishing</t>
   </si>
   <si>
@@ -371,9 +356,6 @@
     <t>Passing</t>
   </si>
   <si>
-    <t>Player Meetin g</t>
-  </si>
-  <si>
     <t>vs Burnley Post-Match Clips</t>
   </si>
   <si>
@@ -449,9 +431,6 @@
     <t>Post-Luton</t>
   </si>
   <si>
-    <t>Interview Card Player</t>
-  </si>
-  <si>
     <t xml:space="preserve">Offensive Patterns -  Finish, movement and heading. Improve Crossing </t>
   </si>
   <si>
@@ -467,9 +446,6 @@
     <t>Individual technique profile and build up / Press out of possession</t>
   </si>
   <si>
-    <t>Interview card player</t>
-  </si>
-  <si>
     <t>Post-Stoke</t>
   </si>
   <si>
@@ -512,18 +488,12 @@
     <t>MEETING PLAYER.</t>
   </si>
   <si>
-    <t xml:space="preserve">NTERVIEW CARD PLAYER.  </t>
-  </si>
-  <si>
     <t>POST MATCH OXFORD</t>
   </si>
   <si>
     <t xml:space="preserve">DEFENSIVE CONCEPS. AERIAL DUEL &amp; DEF BACK POST/ FINISHING/ IMPROVE CROSS </t>
   </si>
   <si>
-    <t xml:space="preserve">INTERVIEW CARD PLAYER        </t>
-  </si>
-  <si>
     <t>FINISHING.BODY SHAPE &amp; MOVEMENT</t>
   </si>
   <si>
@@ -549,6 +519,393 @@
   </si>
   <si>
     <t>Zavier Massiah-Edwards</t>
+  </si>
+  <si>
+    <t>BODY SHAPE - UNDERSTANDING GAME</t>
+  </si>
+  <si>
+    <t>CLIPS LAST SEASON AND BODY SHAPE</t>
+  </si>
+  <si>
+    <t>Opposition Analysis Oxford Post Match Clips</t>
+  </si>
+  <si>
+    <t>review clips</t>
+  </si>
+  <si>
+    <t>Opposition Analysis Post-Match</t>
+  </si>
+  <si>
+    <t>Travis Akomeah</t>
+  </si>
+  <si>
+    <t>Tom Ince</t>
+  </si>
+  <si>
+    <t>Amar Sanghrajka</t>
+  </si>
+  <si>
+    <t>Marc Bola</t>
+  </si>
+  <si>
+    <t>DEFENSIVE CONCEPTS (AVOID CROSS &amp; BODY SHAPE)</t>
+  </si>
+  <si>
+    <t>Jack Grieves</t>
+  </si>
+  <si>
+    <t>Hector Kyprianou</t>
+  </si>
+  <si>
+    <t>BODY SHAPE &amp; BUILD UP</t>
+  </si>
+  <si>
+    <t>INDIVIDUAL TECHNIQUE - CONTROL/PASS</t>
+  </si>
+  <si>
+    <t>BUILD UP &amp; BODY SHAPE</t>
+  </si>
+  <si>
+    <t>Imra Louza</t>
+  </si>
+  <si>
+    <t>Edo Kayembe</t>
+  </si>
+  <si>
+    <t>Moussa Sissoko</t>
+  </si>
+  <si>
+    <t>Tom Dele-Bashiro</t>
+  </si>
+  <si>
+    <t>Vivaldo Semedo</t>
+  </si>
+  <si>
+    <t>PATTERNS FOCUS IN TIMING. BUILD UP&amp;RESTARS</t>
+  </si>
+  <si>
+    <t>Mileta Radjovic</t>
+  </si>
+  <si>
+    <t>POSITIONING GAME</t>
+  </si>
+  <si>
+    <t>Joao Ferreira</t>
+  </si>
+  <si>
+    <t>ANTICIPATE &amp; DEFENSIVE CONCEPTS</t>
+  </si>
+  <si>
+    <t>BODY SHAPE &amp; OFFENSIVE CONCEPTS</t>
+  </si>
+  <si>
+    <t>Jeremy Ngakia</t>
+  </si>
+  <si>
+    <t>BODY SHAPE &amp; FINISHING</t>
+  </si>
+  <si>
+    <t>POSITIONING GAME (post match)</t>
+  </si>
+  <si>
+    <t>ALL TEAM</t>
+  </si>
+  <si>
+    <t>DEFENSIVE CONCEPTS (ONE-TWO PASS DEFENCE &amp; AVOID CROSSES))</t>
+  </si>
+  <si>
+    <t>OFFENSIVE FINISHING</t>
+  </si>
+  <si>
+    <t>Luca Kjerrumgaard</t>
+  </si>
+  <si>
+    <t>FINISHING REACTION SHOTS</t>
+  </si>
+  <si>
+    <t>Build Up &amp; Relationship with 2-9-7</t>
+  </si>
+  <si>
+    <t>Patterns Special Focus in Timing &amp; Body Shape in Build Up/Restart</t>
+  </si>
+  <si>
+    <t>Imran Louza</t>
+  </si>
+  <si>
+    <t>Individual - Technical - Long Passing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POSITIONING GAME </t>
+  </si>
+  <si>
+    <t>Nestory Irankunda</t>
+  </si>
+  <si>
+    <t>Individual Technique - Body Shape &amp; Control</t>
+  </si>
+  <si>
+    <t>Individual Technique - Pass &amp; Finishing</t>
+  </si>
+  <si>
+    <t>Individual Technique - Body Shape &amp; Control - Pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Tobi Adeyemo</t>
+  </si>
+  <si>
+    <t>Individual - Finishing</t>
+  </si>
+  <si>
+    <t>Individual - Body Shape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Individual - Body Shape </t>
+  </si>
+  <si>
+    <t>Tom Dele-Bashiru</t>
+  </si>
+  <si>
+    <t>Mattie Pollock</t>
+  </si>
+  <si>
+    <t>Body Shape in Build Up</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 08/07/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10/07/2025</t>
+  </si>
+  <si>
+    <t>Othmane Maamma</t>
+  </si>
+  <si>
+    <t>Giorgi Chakvetadze</t>
+  </si>
+  <si>
+    <t>Movements Tactics of the Game Model</t>
+  </si>
+  <si>
+    <t>Ryan Porteous</t>
+  </si>
+  <si>
+    <t>POST MATCH LEYTON ORIENT (PRESEASON)</t>
+  </si>
+  <si>
+    <t>DRILLS SPEED AND FINISHING</t>
+  </si>
+  <si>
+    <t>DRILLS CROSS AND FINISHING 1ST POST</t>
+  </si>
+  <si>
+    <t>MEETING PLAYER. ATTITUDE</t>
+  </si>
+  <si>
+    <t>POST MATCH DEPORTIVO</t>
+  </si>
+  <si>
+    <t>POSITIONS WINGER AND FULLBACK</t>
+  </si>
+  <si>
+    <t>James Morris</t>
+  </si>
+  <si>
+    <t>RELATIONSHIP BETWEEN MF / WG. BUILD UP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 05/08/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FINISHING DIFERENT PROFILES. </t>
+  </si>
+  <si>
+    <t>BODY SHAPE IN BUILD UP. CONNECTED WITH 9/7-11</t>
+  </si>
+  <si>
+    <t>POSITIONING GAME. PLAY WITH 7 (1:1)</t>
+  </si>
+  <si>
+    <t>AVOID CROSS. CONNECTED WITH 9/11</t>
+  </si>
+  <si>
+    <t>BODY SHAPE. CONTROL WITH ROTATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11/08/2025</t>
+  </si>
+  <si>
+    <t>CONDITIONAL TRAINING</t>
+  </si>
+  <si>
+    <t>Max Alleyne</t>
+  </si>
+  <si>
+    <t>POSITONING GAME POST MATCH</t>
+  </si>
+  <si>
+    <t>ANTICIPATE &amp; TO FIND #9/#11</t>
+  </si>
+  <si>
+    <t>MOVEMENTS AND TIMING. IMPROVING CROSS &amp; FINISHING</t>
+  </si>
+  <si>
+    <t>2 TYPES OFCONTROL FOR PROGRESSION &amp; FINISHING</t>
+  </si>
+  <si>
+    <t>Josh Mullins</t>
+  </si>
+  <si>
+    <t>FINISHING AND IMPROVE CROSS</t>
+  </si>
+  <si>
+    <t>TACTICS PATTERNS &amp; IMPROVE CROSS AND FINISHING</t>
+  </si>
+  <si>
+    <t>IMPROVE LEFT FOOT IN BUILD UP. FIND #9 #11</t>
+  </si>
+  <si>
+    <t>POSITIONING CENTRE BACK</t>
+  </si>
+  <si>
+    <t>FINISHING CONTROL+ SHOT / TURN ON QUICKER + SHOT</t>
+  </si>
+  <si>
+    <t>DRILLS LEFT SIDE / FINISHING BOTH PROFILES</t>
+  </si>
+  <si>
+    <t>ATTITUDE / USE THE BODY</t>
+  </si>
+  <si>
+    <t>POST MATCH</t>
+  </si>
+  <si>
+    <t>POST MATCH POSITIONING AND FOCUS IN MATCH</t>
+  </si>
+  <si>
+    <t>OFFENSIVE PATTERNS - FINISHING</t>
+  </si>
+  <si>
+    <t>OFFENSIVE PATTERNS - FINISHING-CROSSES</t>
+  </si>
+  <si>
+    <t>FREE FINISHING</t>
+  </si>
+  <si>
+    <t>INDIVIDUAL OPPONENT</t>
+  </si>
+  <si>
+    <t>POST MATCH POSITIONING</t>
+  </si>
+  <si>
+    <t>PROTECT BALL &amp; FACE PLAY</t>
+  </si>
+  <si>
+    <t>OFFENSIVE MOVEMENTS</t>
+  </si>
+  <si>
+    <t>DEFENSIVE CONCEPTS &amp; BUIDL UP</t>
+  </si>
+  <si>
+    <t>DEFENDER 2ND POST. DEFENSIVE CONCEPTS</t>
+  </si>
+  <si>
+    <t>MOVEMENTS IN PRESS (HIGH PRESS/MID BLOCK)</t>
+  </si>
+  <si>
+    <t>PROTECT THE BALL &amp; TURN FAST</t>
+  </si>
+  <si>
+    <t>BODY SHAPE FOR SWITCH</t>
+  </si>
+  <si>
+    <t>POSITION WINGER &amp; ATTITUDE</t>
+  </si>
+  <si>
+    <t>FOCUS IN MATCH</t>
+  </si>
+  <si>
+    <t>PROTECT THE BALL &amp; PLAY FACE</t>
+  </si>
+  <si>
+    <t>TECHNIQUE INDIVIDUAL &amp; FINISHING</t>
+  </si>
+  <si>
+    <t>DEFENSIVE CONCEPTS / BUILD UP</t>
+  </si>
+  <si>
+    <t>DEFENSIVE MOVEMENTS / HIGH PRESS- MID BLOCK</t>
+  </si>
+  <si>
+    <t>PERSONAL INTERVIEW. POSITION WINGER/ATTITUDE</t>
+  </si>
+  <si>
+    <t>Jeremy Petris</t>
+  </si>
+  <si>
+    <t>BUILD UP IN GOAL KICK. SOLUTIONS &amp; MOVEMENTS</t>
+  </si>
+  <si>
+    <t>Nepalys Mendy</t>
+  </si>
+  <si>
+    <t>PERSONAL INTERVIEW. CARD PLAYER</t>
+  </si>
+  <si>
+    <t>Formose Mendy</t>
+  </si>
+  <si>
+    <t>INDIVIDUAL TECHNIQUE - BUILD UP &amp; RESTART</t>
+  </si>
+  <si>
+    <t>INDIVIDUAL TECHNIQUE - BODY SHAPE &amp; CONTROL/PASS</t>
+  </si>
+  <si>
+    <t>INDIVIDUAL TECHNIQUE - BODY SHAPE &amp; CONTROL/PASS&amp;FINISNING</t>
+  </si>
+  <si>
+    <t>LONG PASS IN BUILD UP &amp; IMPROVING LEFT FOOT</t>
+  </si>
+  <si>
+    <t>IMPROVING LEFT FOOT</t>
+  </si>
+  <si>
+    <t>BUILD UP &amp; IMPROVING BODY SHAPE IN RESTART</t>
+  </si>
+  <si>
+    <t>DOUBLE FINISHING &amp; IMPROVING 1V1</t>
+  </si>
+  <si>
+    <t>ATTITUDE IN TRAINING</t>
+  </si>
+  <si>
+    <t>ATTITUDE IN MATCH / USED YOUR BODY. EXAMPLES RASHFORD/VINICIUS/LEAO</t>
+  </si>
+  <si>
+    <t>CONNECT WITH WB + TO ATTACK BOX + IMPROVING CROSS</t>
+  </si>
+  <si>
+    <t>REACTIONS SHOT</t>
+  </si>
+  <si>
+    <t>CARD PLAYER</t>
+  </si>
+  <si>
+    <t>IMPROVING CROSSES &amp; SPECIFIC FINISHING</t>
+  </si>
+  <si>
+    <t>PERSONAL INTERVIEW</t>
+  </si>
+  <si>
+    <t>INDIVIDUAL SESSION PATTERNS LONG PASS &amp; FINISHING</t>
+  </si>
+  <si>
+    <t>INDIVIDUAL SESSION CENTRE BACK (BODY SHAPE IN BUILD UP &amp; RECOVERY PASSES)</t>
+  </si>
+  <si>
+    <t>INDIVIDUAL SESSION NON SQUAD. SSG &amp; PATTERNS &amp; FINISHING</t>
   </si>
 </sst>
 </file>
@@ -938,26 +1295,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D1F4C8-8FC1-6D4C-8100-17BA8EC0B4E7}">
-  <dimension ref="A1:E328"/>
+  <dimension ref="A1:F666"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A631" workbookViewId="0">
+      <selection activeCell="C671" sqref="C671"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.33203125" customWidth="1"/>
+    <col min="2" max="2" width="23.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="56.83203125" customWidth="1"/>
+    <col min="4" max="4" width="46.83203125" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>17</v>
@@ -988,10 +1345,10 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" t="s">
-        <v>33</v>
+        <v>83</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1002,7 +1359,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1013,7 +1370,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1024,7 +1381,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1035,7 +1392,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1045,8 +1402,8 @@
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D8" t="s">
-        <v>18</v>
+      <c r="D8" s="3" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1057,7 +1414,7 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1068,7 +1425,7 @@
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1079,7 +1436,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1090,7 +1447,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1101,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1112,7 +1469,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1123,7 +1480,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1134,7 +1491,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -1145,7 +1502,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -1156,7 +1513,7 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1178,7 +1535,7 @@
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -1189,7 +1546,7 @@
         <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -1244,7 +1601,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -1255,7 +1612,7 @@
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -1266,7 +1623,7 @@
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -1277,7 +1634,7 @@
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -1288,7 +1645,7 @@
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1310,10 +1667,10 @@
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>78</v>
-      </c>
-      <c r="D32" t="s">
-        <v>18</v>
+        <v>73</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -1324,7 +1681,7 @@
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -1335,7 +1692,7 @@
         <v>5</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -1346,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -1357,7 +1714,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -1368,7 +1725,7 @@
         <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -1379,7 +1736,7 @@
         <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -1390,7 +1747,7 @@
         <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -1401,7 +1758,7 @@
         <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -1412,7 +1769,7 @@
         <v>5</v>
       </c>
       <c r="D41" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -1423,7 +1780,7 @@
         <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -1434,7 +1791,7 @@
         <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -1445,7 +1802,7 @@
         <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -1455,11 +1812,11 @@
       <c r="B45" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D45" t="s">
-        <v>18</v>
+      <c r="D45" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="E45" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -1470,7 +1827,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -1481,7 +1838,7 @@
         <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -1492,7 +1849,7 @@
         <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -1503,7 +1860,7 @@
         <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -1514,7 +1871,7 @@
         <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -1525,7 +1882,7 @@
         <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -1536,7 +1893,7 @@
         <v>5</v>
       </c>
       <c r="C52" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -1547,7 +1904,7 @@
         <v>5</v>
       </c>
       <c r="C53" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -1558,7 +1915,7 @@
         <v>5</v>
       </c>
       <c r="E54" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -1569,7 +1926,7 @@
         <v>5</v>
       </c>
       <c r="C55" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -1580,7 +1937,7 @@
         <v>5</v>
       </c>
       <c r="E56" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -1591,7 +1948,7 @@
         <v>5</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -1602,7 +1959,7 @@
         <v>5</v>
       </c>
       <c r="C58" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -1624,7 +1981,7 @@
         <v>5</v>
       </c>
       <c r="E60" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -1635,7 +1992,7 @@
         <v>5</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -1645,8 +2002,9 @@
       <c r="B62" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>69</v>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -1657,7 +2015,7 @@
         <v>5</v>
       </c>
       <c r="C63" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -1668,7 +2026,7 @@
         <v>5</v>
       </c>
       <c r="E64" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -1679,7 +2037,7 @@
         <v>5</v>
       </c>
       <c r="C65" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -1689,8 +2047,8 @@
       <c r="B66" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D66" t="s">
-        <v>69</v>
+      <c r="E66" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -1701,10 +2059,10 @@
         <v>5</v>
       </c>
       <c r="C67" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E67" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -1714,8 +2072,8 @@
       <c r="B68" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D68" t="s">
-        <v>151</v>
+      <c r="E68" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -1726,7 +2084,7 @@
         <v>5</v>
       </c>
       <c r="E69" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -1736,8 +2094,8 @@
       <c r="B70" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D70" t="s">
-        <v>18</v>
+      <c r="D70" s="3" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -1747,8 +2105,8 @@
       <c r="B71" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D71" t="s">
-        <v>150</v>
+      <c r="E71" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -1814,7 +2172,7 @@
         <v>6</v>
       </c>
       <c r="E77" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -1825,7 +2183,7 @@
         <v>6</v>
       </c>
       <c r="C78" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -1836,13 +2194,13 @@
         <v>6</v>
       </c>
       <c r="C79" t="s">
+        <v>49</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E79" t="s">
         <v>52</v>
-      </c>
-      <c r="D79" t="s">
-        <v>18</v>
-      </c>
-      <c r="E79" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -1853,7 +2211,7 @@
         <v>6</v>
       </c>
       <c r="E80" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -1863,11 +2221,8 @@
       <c r="B81" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D81" t="s">
-        <v>69</v>
-      </c>
       <c r="E81" t="s">
-        <v>70</v>
+        <v>163</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -1878,7 +2233,7 @@
         <v>6</v>
       </c>
       <c r="C82" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -1889,7 +2244,7 @@
         <v>6</v>
       </c>
       <c r="E83" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -1899,11 +2254,11 @@
       <c r="B84" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D84" t="s">
-        <v>18</v>
+      <c r="D84" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="E84" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -1914,7 +2269,7 @@
         <v>6</v>
       </c>
       <c r="E85" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -1925,7 +2280,7 @@
         <v>6</v>
       </c>
       <c r="C86" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -1936,7 +2291,7 @@
         <v>6</v>
       </c>
       <c r="C87" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -1947,7 +2302,7 @@
         <v>6</v>
       </c>
       <c r="C88" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -1957,11 +2312,11 @@
       <c r="B89" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D89" t="s">
-        <v>18</v>
+      <c r="D89" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="E89" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -1972,7 +2327,7 @@
         <v>6</v>
       </c>
       <c r="E90" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -1983,7 +2338,7 @@
         <v>6</v>
       </c>
       <c r="E91" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -2007,8 +2362,8 @@
       <c r="C93" t="s">
         <v>29</v>
       </c>
-      <c r="D93" t="s">
-        <v>14</v>
+      <c r="E93" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -2074,7 +2429,7 @@
         <v>11</v>
       </c>
       <c r="C99" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -2085,7 +2440,7 @@
         <v>11</v>
       </c>
       <c r="C100" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -2096,7 +2451,7 @@
         <v>11</v>
       </c>
       <c r="C101" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -2118,7 +2473,7 @@
         <v>11</v>
       </c>
       <c r="C103" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -2129,10 +2484,10 @@
         <v>11</v>
       </c>
       <c r="C104" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E104" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
@@ -2143,7 +2498,7 @@
         <v>11</v>
       </c>
       <c r="C105" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -2154,7 +2509,7 @@
         <v>11</v>
       </c>
       <c r="C106" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -2165,7 +2520,7 @@
         <v>11</v>
       </c>
       <c r="C107" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -2176,7 +2531,7 @@
         <v>11</v>
       </c>
       <c r="C108" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -2198,7 +2553,7 @@
         <v>11</v>
       </c>
       <c r="C110" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
@@ -2209,7 +2564,7 @@
         <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -2220,7 +2575,7 @@
         <v>11</v>
       </c>
       <c r="C112" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -2231,7 +2586,7 @@
         <v>11</v>
       </c>
       <c r="C113" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -2242,7 +2597,7 @@
         <v>11</v>
       </c>
       <c r="C114" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -2252,11 +2607,11 @@
       <c r="B115" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D115" t="s">
-        <v>18</v>
+      <c r="D115" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="E115" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -2289,7 +2644,7 @@
         <v>11</v>
       </c>
       <c r="C118" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -2311,7 +2666,7 @@
         <v>11</v>
       </c>
       <c r="C120" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
@@ -2322,7 +2677,7 @@
         <v>11</v>
       </c>
       <c r="C121" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
@@ -2333,7 +2688,7 @@
         <v>11</v>
       </c>
       <c r="C122" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
@@ -2344,7 +2699,7 @@
         <v>11</v>
       </c>
       <c r="C123" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
@@ -2355,7 +2710,7 @@
         <v>11</v>
       </c>
       <c r="C124" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -2365,8 +2720,8 @@
       <c r="B125" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D125" t="s">
-        <v>157</v>
+      <c r="D125" s="3" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
@@ -2377,7 +2732,7 @@
         <v>11</v>
       </c>
       <c r="C126" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
@@ -2388,7 +2743,7 @@
         <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
@@ -2431,8 +2786,8 @@
       <c r="B131" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D131" t="s">
-        <v>30</v>
+      <c r="D131" s="3" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
@@ -2454,7 +2809,7 @@
         <v>4</v>
       </c>
       <c r="C133" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
@@ -2465,7 +2820,7 @@
         <v>4</v>
       </c>
       <c r="C134" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
@@ -2487,7 +2842,7 @@
         <v>4</v>
       </c>
       <c r="C136" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
@@ -2498,7 +2853,7 @@
         <v>4</v>
       </c>
       <c r="C137" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
@@ -2509,7 +2864,7 @@
         <v>4</v>
       </c>
       <c r="C138" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
@@ -2520,7 +2875,7 @@
         <v>4</v>
       </c>
       <c r="E139" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
@@ -2530,11 +2885,11 @@
       <c r="B140" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D140" t="s">
-        <v>46</v>
+      <c r="D140" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="E140" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
@@ -2545,7 +2900,7 @@
         <v>4</v>
       </c>
       <c r="E141" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
@@ -2556,7 +2911,7 @@
         <v>4</v>
       </c>
       <c r="C142" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
@@ -2567,7 +2922,7 @@
         <v>4</v>
       </c>
       <c r="C143" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
@@ -2578,7 +2933,7 @@
         <v>4</v>
       </c>
       <c r="E144" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
@@ -2588,8 +2943,8 @@
       <c r="B145" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D145" t="s">
-        <v>46</v>
+      <c r="D145" s="3" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
@@ -2600,10 +2955,10 @@
         <v>4</v>
       </c>
       <c r="C146" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E146" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
@@ -2614,7 +2969,7 @@
         <v>4</v>
       </c>
       <c r="C147" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
@@ -2625,7 +2980,7 @@
         <v>4</v>
       </c>
       <c r="C148" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
@@ -2635,11 +2990,11 @@
       <c r="B149" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D149" t="s">
-        <v>46</v>
+      <c r="D149" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="E149" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
@@ -2649,8 +3004,8 @@
       <c r="B150" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D150" t="s">
-        <v>111</v>
+      <c r="D150" s="3" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
@@ -2661,7 +3016,7 @@
         <v>4</v>
       </c>
       <c r="C151" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
@@ -2672,10 +3027,10 @@
         <v>4</v>
       </c>
       <c r="C152" t="s">
-        <v>113</v>
-      </c>
-      <c r="D152" t="s">
-        <v>46</v>
+        <v>107</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
@@ -2686,10 +3041,10 @@
         <v>4</v>
       </c>
       <c r="C153" t="s">
-        <v>115</v>
-      </c>
-      <c r="D153" t="s">
-        <v>46</v>
+        <v>109</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
@@ -2700,7 +3055,7 @@
         <v>4</v>
       </c>
       <c r="C154" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
@@ -2727,7 +3082,7 @@
         <v>4</v>
       </c>
       <c r="C157" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
@@ -2748,8 +3103,8 @@
       <c r="B159" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D159" t="s">
-        <v>14</v>
+      <c r="E159" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
@@ -2771,7 +3126,7 @@
         <v>2</v>
       </c>
       <c r="C161" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
@@ -2781,11 +3136,11 @@
       <c r="B162" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D162" t="s">
-        <v>33</v>
+      <c r="D162" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="E162" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
@@ -2796,7 +3151,7 @@
         <v>2</v>
       </c>
       <c r="C163" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
@@ -2807,7 +3162,7 @@
         <v>2</v>
       </c>
       <c r="E164" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
@@ -2818,7 +3173,7 @@
         <v>2</v>
       </c>
       <c r="C165" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
@@ -2829,7 +3184,7 @@
         <v>2</v>
       </c>
       <c r="E166" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
@@ -2840,7 +3195,7 @@
         <v>2</v>
       </c>
       <c r="E167" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
@@ -2862,7 +3217,7 @@
         <v>2</v>
       </c>
       <c r="E169" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
@@ -2873,7 +3228,7 @@
         <v>2</v>
       </c>
       <c r="C170" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
@@ -2884,7 +3239,7 @@
         <v>2</v>
       </c>
       <c r="C171" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
@@ -2895,7 +3250,7 @@
         <v>2</v>
       </c>
       <c r="C172" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
@@ -2906,7 +3261,7 @@
         <v>2</v>
       </c>
       <c r="C173" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
@@ -2917,7 +3272,7 @@
         <v>2</v>
       </c>
       <c r="C174" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
@@ -2928,7 +3283,7 @@
         <v>2</v>
       </c>
       <c r="C175" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
@@ -2950,7 +3305,7 @@
         <v>13</v>
       </c>
       <c r="C177" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
@@ -2960,8 +3315,8 @@
       <c r="B178" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D178" t="s">
-        <v>30</v>
+      <c r="D178" s="3" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
@@ -2972,7 +3327,7 @@
         <v>13</v>
       </c>
       <c r="C179" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
@@ -2982,11 +3337,11 @@
       <c r="B180" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D180" t="s">
-        <v>66</v>
+      <c r="D180" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="E180" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
@@ -2997,7 +3352,7 @@
         <v>13</v>
       </c>
       <c r="C181" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
@@ -3007,8 +3362,8 @@
       <c r="B182" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D182" t="s">
-        <v>69</v>
+      <c r="E182" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
@@ -3030,7 +3385,7 @@
         <v>13</v>
       </c>
       <c r="C184" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
@@ -3040,11 +3395,11 @@
       <c r="B185" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D185" t="s">
-        <v>46</v>
+      <c r="D185" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="E185" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
@@ -3055,7 +3410,7 @@
         <v>13</v>
       </c>
       <c r="E186" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
@@ -3065,8 +3420,8 @@
       <c r="B187" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D187" t="s">
-        <v>46</v>
+      <c r="D187" s="3" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
@@ -3076,8 +3431,8 @@
       <c r="B188" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D188" t="s">
-        <v>46</v>
+      <c r="D188" s="3" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
@@ -3087,8 +3442,8 @@
       <c r="B189" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D189" t="s">
-        <v>69</v>
+      <c r="E189" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
@@ -3098,8 +3453,9 @@
       <c r="B190" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D190" s="3" t="s">
-        <v>69</v>
+      <c r="D190" s="3"/>
+      <c r="E190" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
@@ -3109,8 +3465,8 @@
       <c r="B191" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D191" t="s">
-        <v>69</v>
+      <c r="E191" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
@@ -3121,7 +3477,7 @@
         <v>13</v>
       </c>
       <c r="E192" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
@@ -3132,7 +3488,7 @@
         <v>13</v>
       </c>
       <c r="E193" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
@@ -3143,10 +3499,10 @@
         <v>13</v>
       </c>
       <c r="C194" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E194" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
@@ -3157,7 +3513,7 @@
         <v>13</v>
       </c>
       <c r="C195" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
@@ -3168,10 +3524,10 @@
         <v>13</v>
       </c>
       <c r="D196" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E196" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
@@ -3182,10 +3538,10 @@
         <v>13</v>
       </c>
       <c r="C197" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E197" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
@@ -3195,7 +3551,7 @@
       <c r="B198" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D198" t="s">
+      <c r="E198" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3217,7 +3573,7 @@
       <c r="B200" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D200" t="s">
+      <c r="E200" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3295,7 +3651,7 @@
         <v>0</v>
       </c>
       <c r="C207" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
@@ -3342,7 +3698,7 @@
         <v>0</v>
       </c>
       <c r="C211" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
@@ -3353,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="C212" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
@@ -3364,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="C213" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
@@ -3375,7 +3731,7 @@
         <v>0</v>
       </c>
       <c r="C214" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
@@ -3396,8 +3752,8 @@
       <c r="B216" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D216" t="s">
-        <v>69</v>
+      <c r="E216" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
@@ -3408,10 +3764,10 @@
         <v>0</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E217" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
@@ -3421,8 +3777,9 @@
       <c r="B218" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D218" s="3" t="s">
-        <v>69</v>
+      <c r="D218" s="3"/>
+      <c r="E218" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
@@ -3433,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="E219" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
@@ -3444,7 +3801,7 @@
         <v>0</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
@@ -3455,7 +3812,7 @@
         <v>0</v>
       </c>
       <c r="C221" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
@@ -3466,7 +3823,7 @@
         <v>0</v>
       </c>
       <c r="E222" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
@@ -3477,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="C223" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
@@ -3488,7 +3845,7 @@
         <v>0</v>
       </c>
       <c r="C224" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
@@ -3499,7 +3856,7 @@
         <v>0</v>
       </c>
       <c r="C225" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
@@ -3510,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="C226" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
@@ -3521,7 +3878,7 @@
         <v>0</v>
       </c>
       <c r="D227" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
@@ -3553,8 +3910,8 @@
       <c r="B230" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D230" t="s">
-        <v>30</v>
+      <c r="D230" s="3" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
@@ -3575,11 +3932,11 @@
       <c r="B232" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D232" t="s">
-        <v>33</v>
+      <c r="D232" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="E232" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
@@ -3590,7 +3947,7 @@
         <v>7</v>
       </c>
       <c r="C233" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
@@ -3612,7 +3969,7 @@
         <v>7</v>
       </c>
       <c r="C235" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
@@ -3623,7 +3980,7 @@
         <v>7</v>
       </c>
       <c r="C236" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
@@ -3645,10 +4002,10 @@
         <v>7</v>
       </c>
       <c r="C238" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E238" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
@@ -3659,7 +4016,7 @@
         <v>7</v>
       </c>
       <c r="E239" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
@@ -3670,7 +4027,7 @@
         <v>7</v>
       </c>
       <c r="E240" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
@@ -3681,7 +4038,7 @@
         <v>7</v>
       </c>
       <c r="C241" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
@@ -3692,7 +4049,7 @@
         <v>7</v>
       </c>
       <c r="C242" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
@@ -3703,7 +4060,7 @@
         <v>3</v>
       </c>
       <c r="C243" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
@@ -3714,9 +4071,9 @@
         <v>3</v>
       </c>
       <c r="C244" t="s">
-        <v>77</v>
-      </c>
-      <c r="D244" t="s">
+        <v>72</v>
+      </c>
+      <c r="E244" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3761,7 +4118,7 @@
         <v>3</v>
       </c>
       <c r="C248" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
@@ -3826,8 +4183,8 @@
       <c r="B254" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D254" t="s">
-        <v>30</v>
+      <c r="D254" s="3" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
@@ -3849,7 +4206,7 @@
         <v>3</v>
       </c>
       <c r="C256" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
@@ -3860,7 +4217,7 @@
         <v>3</v>
       </c>
       <c r="E257" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
@@ -3871,7 +4228,7 @@
         <v>3</v>
       </c>
       <c r="C258" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
@@ -3882,7 +4239,7 @@
         <v>3</v>
       </c>
       <c r="C259" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
@@ -3895,8 +4252,8 @@
       <c r="C260" t="s">
         <v>29</v>
       </c>
-      <c r="D260" t="s">
-        <v>18</v>
+      <c r="D260" s="3" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
@@ -3907,7 +4264,7 @@
         <v>3</v>
       </c>
       <c r="C261" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
@@ -3918,7 +4275,7 @@
         <v>3</v>
       </c>
       <c r="C262" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
@@ -3929,7 +4286,7 @@
         <v>3</v>
       </c>
       <c r="C263" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
@@ -3940,7 +4297,7 @@
         <v>3</v>
       </c>
       <c r="C264" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
@@ -3951,7 +4308,7 @@
         <v>3</v>
       </c>
       <c r="C265" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
@@ -3973,7 +4330,7 @@
         <v>3</v>
       </c>
       <c r="E267" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
@@ -3984,7 +4341,7 @@
         <v>3</v>
       </c>
       <c r="C268" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
@@ -3995,7 +4352,7 @@
         <v>3</v>
       </c>
       <c r="C269" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
@@ -4006,7 +4363,7 @@
         <v>3</v>
       </c>
       <c r="C270" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
@@ -4017,7 +4374,7 @@
         <v>3</v>
       </c>
       <c r="E271" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
@@ -4028,7 +4385,7 @@
         <v>3</v>
       </c>
       <c r="C272" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
@@ -4039,7 +4396,7 @@
         <v>3</v>
       </c>
       <c r="C273" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
@@ -4050,7 +4407,7 @@
         <v>3</v>
       </c>
       <c r="C274" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
@@ -4058,7 +4415,7 @@
         <v>45697</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C275" s="3" t="s">
         <v>29</v>
@@ -4070,7 +4427,7 @@
         <v>45698</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C276" s="3" t="s">
         <v>29</v>
@@ -4082,10 +4439,10 @@
         <v>45706</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D277" s="3"/>
     </row>
@@ -4094,10 +4451,10 @@
         <v>45707</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D278" s="3"/>
     </row>
@@ -4106,13 +4463,13 @@
         <v>45715</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D279" s="3" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
@@ -4120,10 +4477,10 @@
         <v>45722</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D280" t="s">
-        <v>137</v>
+        <v>155</v>
+      </c>
+      <c r="D280" s="3" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
@@ -4131,10 +4488,10 @@
         <v>45723</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C281" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
@@ -4142,10 +4499,10 @@
         <v>45726</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C282" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
@@ -4153,10 +4510,10 @@
         <v>45730</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C283" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
@@ -4164,10 +4521,10 @@
         <v>45743</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D284" t="s">
-        <v>161</v>
+        <v>155</v>
+      </c>
+      <c r="D284" s="3" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
@@ -4175,10 +4532,10 @@
         <v>45707</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D285" s="3"/>
       <c r="E285" s="3"/>
@@ -4188,10 +4545,10 @@
         <v>45713</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D286" s="3"/>
       <c r="E286" s="3"/>
@@ -4201,10 +4558,10 @@
         <v>45716</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D287" s="3"/>
       <c r="E287" s="3"/>
@@ -4214,10 +4571,10 @@
         <v>45720</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D288" t="s">
-        <v>143</v>
+        <v>156</v>
+      </c>
+      <c r="D288" s="3" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
@@ -4225,10 +4582,10 @@
         <v>45723</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C289" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
@@ -4236,10 +4593,10 @@
         <v>45727</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D290" t="s">
-        <v>143</v>
+        <v>156</v>
+      </c>
+      <c r="D290" s="3" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
@@ -4247,10 +4604,10 @@
         <v>45729</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C291" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
@@ -4258,10 +4615,10 @@
         <v>45730</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C292" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
@@ -4269,10 +4626,10 @@
         <v>45741</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C293" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
@@ -4280,10 +4637,10 @@
         <v>45742</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="D294" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
@@ -4291,10 +4648,10 @@
         <v>45743</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C295" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
@@ -4302,11 +4659,11 @@
         <v>45692</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C296" s="3"/>
       <c r="D296" s="3" t="s">
-        <v>18</v>
+        <v>149</v>
       </c>
       <c r="E296" s="3"/>
     </row>
@@ -4315,14 +4672,14 @@
         <v>45693</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D297" s="3"/>
       <c r="E297" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
@@ -4330,10 +4687,10 @@
         <v>45694</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D298" s="3"/>
       <c r="E298" s="3"/>
@@ -4343,27 +4700,25 @@
         <v>45695</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C299" s="3"/>
-      <c r="D299" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E299" s="3"/>
+      <c r="D299" s="3"/>
+      <c r="E299" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" s="4">
         <v>45698</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C300" s="3"/>
-      <c r="D300" s="3" t="s">
-        <v>69</v>
-      </c>
+      <c r="D300" s="3"/>
       <c r="E300" s="3" t="s">
-        <v>126</v>
+        <v>165</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
@@ -4371,12 +4726,12 @@
         <v>45701</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C301" s="3"/>
       <c r="D301" s="3"/>
       <c r="E301" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
@@ -4384,25 +4739,25 @@
         <v>45702</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C302" s="3"/>
-      <c r="D302" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E302" s="3"/>
+      <c r="D302" s="3"/>
+      <c r="E302" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" s="4">
         <v>45706</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C303" s="3"/>
       <c r="D303" s="3"/>
       <c r="E303" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
@@ -4410,16 +4765,16 @@
         <v>45707</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D304" s="3" t="s">
-        <v>18</v>
+        <v>149</v>
       </c>
       <c r="E304" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
@@ -4427,38 +4782,38 @@
         <v>45709</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C305" s="3"/>
-      <c r="D305" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E305" s="3"/>
+      <c r="D305" s="3"/>
+      <c r="E305" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" s="4">
         <v>45710</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C306" s="3"/>
-      <c r="D306" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E306" s="3"/>
+      <c r="D306" s="3"/>
+      <c r="E306" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" s="4">
         <v>45713</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C307" s="3"/>
       <c r="D307" s="3"/>
       <c r="E307" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
@@ -4466,11 +4821,11 @@
         <v>45714</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C308" s="3"/>
       <c r="D308" s="3" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="E308" s="3"/>
     </row>
@@ -4479,23 +4834,23 @@
         <v>45716</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C309" s="3"/>
-      <c r="D309" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E309" s="3"/>
+      <c r="D309" s="3"/>
+      <c r="E309" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>45721</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="E310" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.2">
@@ -4503,10 +4858,10 @@
         <v>45722</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C311" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
@@ -4514,10 +4869,10 @@
         <v>45723</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D312" t="s">
-        <v>151</v>
+        <v>157</v>
+      </c>
+      <c r="E312" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
@@ -4525,10 +4880,10 @@
         <v>45727</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C313" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
@@ -4536,10 +4891,10 @@
         <v>45728</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D314" t="s">
-        <v>143</v>
+        <v>157</v>
+      </c>
+      <c r="D314" s="3" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
@@ -4547,10 +4902,10 @@
         <v>45730</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D315" t="s">
-        <v>151</v>
+        <v>157</v>
+      </c>
+      <c r="E315" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
@@ -4558,10 +4913,10 @@
         <v>45732</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="E316" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
@@ -4569,13 +4924,13 @@
         <v>45742</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D317" t="s">
-        <v>158</v>
+        <v>157</v>
+      </c>
+      <c r="D317" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="E317" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
@@ -4583,10 +4938,10 @@
         <v>45743</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="E318" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
@@ -4594,10 +4949,10 @@
         <v>45697</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
@@ -4605,10 +4960,10 @@
         <v>45698</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.2">
@@ -4616,10 +4971,10 @@
         <v>45706</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.2">
@@ -4627,10 +4982,10 @@
         <v>45713</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.2">
@@ -4638,11 +4993,11 @@
         <v>45693</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C323" s="3"/>
       <c r="D323" s="3" t="s">
-        <v>18</v>
+        <v>149</v>
       </c>
       <c r="E323" s="3"/>
     </row>
@@ -4651,10 +5006,10 @@
         <v>45698</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D324" s="3"/>
       <c r="E324" s="3"/>
@@ -4664,10 +5019,10 @@
         <v>45706</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D325" s="3"/>
       <c r="E325" s="3"/>
@@ -4677,10 +5032,10 @@
         <v>45707</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C326" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D326" s="3"/>
       <c r="E326" s="3"/>
@@ -4690,10 +5045,10 @@
         <v>45726</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C327" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E327" s="3"/>
     </row>
@@ -4702,13 +5057,3732 @@
         <v>45746</v>
       </c>
       <c r="B328" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C328" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A329" s="1">
+        <v>45834</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C329" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A330" s="1">
+        <v>45834</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C330" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A331" s="1">
+        <v>45834</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C331" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A332" s="1">
+        <v>45836</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C332" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A333" s="1">
+        <v>45836</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E333" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A334" s="1">
+        <v>45838</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C334" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D334" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A335" s="1">
+        <v>45838</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C335" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A336" s="1">
+        <v>45838</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C336" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A337" s="1">
+        <v>45838</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C337" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A338" s="1">
+        <v>45838</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C338" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A339" s="1">
+        <v>45838</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C339" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A340" s="1">
+        <v>45838</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C340" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A341" s="1">
+        <v>45838</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C341" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A342" s="1">
+        <v>45838</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C342" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A343" s="1">
+        <v>45838</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C343" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A344" s="1">
+        <v>45840</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D344" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A345" s="1">
+        <v>45840</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C345" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C328" s="3" t="s">
-        <v>162</v>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A346" s="1">
+        <v>45840</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C346" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A347" s="1">
+        <v>45840</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C347" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A348" s="1">
+        <v>45840</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D348" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A349" s="1">
+        <v>45841</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E349" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A350" s="1">
+        <v>45841</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C350" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A351" s="1">
+        <v>45841</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C351" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A352" s="1">
+        <v>45841</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C352" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A353" s="1">
+        <v>45842</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C353" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A354" s="1">
+        <v>45842</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C354" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A355" s="1">
+        <v>45842</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C355" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A356" s="1">
+        <v>45842</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C356" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A357" s="1">
+        <v>45843</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D357" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A358" s="1">
+        <v>45843</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E358" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A359" s="1">
+        <v>45845</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C359" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A360" s="1">
+        <v>45845</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C360" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A361" s="1">
+        <v>45845</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C361" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A362" s="1">
+        <v>45845</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C362" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A363" s="1">
+        <v>45845</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C363" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A364" s="1">
+        <v>45845</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C364" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A365" s="1">
+        <v>45845</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C365" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A366" s="1">
+        <v>45845</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C366" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A367" s="1">
+        <v>45845</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C367" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A368" s="1">
+        <v>45845</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D368" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A369" s="1">
+        <v>45845</v>
+      </c>
+      <c r="B369" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E369" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A370" s="1">
+        <v>45845</v>
+      </c>
+      <c r="B370" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E370" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A371" s="1">
+        <v>45845</v>
+      </c>
+      <c r="B371" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E371" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A372" s="1">
+        <v>45845</v>
+      </c>
+      <c r="B372" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E372" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A373" s="1">
+        <v>45845</v>
+      </c>
+      <c r="B373" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E373" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
+        <v>212</v>
+      </c>
+      <c r="B374" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C374" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A375" t="s">
+        <v>212</v>
+      </c>
+      <c r="B375" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C375" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
+        <v>212</v>
+      </c>
+      <c r="B376" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C376" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
+        <v>212</v>
+      </c>
+      <c r="B377" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C377" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A378" t="s">
+        <v>213</v>
+      </c>
+      <c r="B378" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E378" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A379" t="s">
+        <v>213</v>
+      </c>
+      <c r="B379" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E379" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A380" t="s">
+        <v>213</v>
+      </c>
+      <c r="B380" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E380" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A381" t="s">
+        <v>213</v>
+      </c>
+      <c r="B381" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E381" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
+        <v>213</v>
+      </c>
+      <c r="B382" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C382" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A383" t="s">
+        <v>213</v>
+      </c>
+      <c r="B383" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C383" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A384" t="s">
+        <v>213</v>
+      </c>
+      <c r="B384" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C384" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A385" s="1">
+        <v>45848</v>
+      </c>
+      <c r="B385" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C385" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A386" s="1">
+        <v>45848</v>
+      </c>
+      <c r="B386" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C386" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A387" s="1">
+        <v>45848</v>
+      </c>
+      <c r="B387" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C387" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A388" s="1">
+        <v>45848</v>
+      </c>
+      <c r="B388" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C388" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A389" s="1">
+        <v>45848</v>
+      </c>
+      <c r="B389" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C389" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A390" s="1">
+        <v>45848</v>
+      </c>
+      <c r="B390" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E390" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A391" s="1">
+        <v>45848</v>
+      </c>
+      <c r="B391" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E391" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A392" s="1">
+        <v>45848</v>
+      </c>
+      <c r="B392" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E392" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A393" s="1">
+        <v>45848</v>
+      </c>
+      <c r="B393" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E393" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A394" s="1">
+        <v>45849</v>
+      </c>
+      <c r="B394" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E394" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A395" s="1">
+        <v>45849</v>
+      </c>
+      <c r="B395" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C395" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A396" s="1">
+        <v>45849</v>
+      </c>
+      <c r="B396" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C396" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A397" s="1">
+        <v>45849</v>
+      </c>
+      <c r="B397" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C397" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A398" s="1">
+        <v>45849</v>
+      </c>
+      <c r="B398" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C398" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A399" s="1">
+        <v>45849</v>
+      </c>
+      <c r="B399" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C399" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A400" s="1">
+        <v>45849</v>
+      </c>
+      <c r="B400" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C400" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A401" s="1">
+        <v>45850</v>
+      </c>
+      <c r="B401" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C401" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A402" s="1">
+        <v>45850</v>
+      </c>
+      <c r="B402" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C402" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A403" s="1">
+        <v>45853</v>
+      </c>
+      <c r="B403" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C403" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A404" s="1">
+        <v>45853</v>
+      </c>
+      <c r="B404" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C404" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A405" s="1">
+        <v>45853</v>
+      </c>
+      <c r="B405" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C405" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A406" s="1">
+        <v>45853</v>
+      </c>
+      <c r="B406" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C406" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A407" s="1">
+        <v>45853</v>
+      </c>
+      <c r="B407" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E407" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A408" s="1">
+        <v>45854</v>
+      </c>
+      <c r="B408" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C408" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A409" s="1">
+        <v>45854</v>
+      </c>
+      <c r="B409" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C409" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A410" s="1">
+        <v>45854</v>
+      </c>
+      <c r="B410" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E410" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A411" s="1">
+        <v>45855</v>
+      </c>
+      <c r="B411" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C411" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A412" s="1">
+        <v>45855</v>
+      </c>
+      <c r="B412" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C412" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A413" s="1">
+        <v>45855</v>
+      </c>
+      <c r="B413" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C413" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A414" s="1">
+        <v>45855</v>
+      </c>
+      <c r="B414" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C414" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A415" s="1">
+        <v>45856</v>
+      </c>
+      <c r="B415" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C415" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A416" s="1">
+        <v>45856</v>
+      </c>
+      <c r="B416" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C416" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A417" s="1">
+        <v>45856</v>
+      </c>
+      <c r="B417" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C417" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A418" s="1">
+        <v>45857</v>
+      </c>
+      <c r="B418" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C418" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A419" s="1">
+        <v>45857</v>
+      </c>
+      <c r="B419" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C419" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A420" s="1">
+        <v>45859</v>
+      </c>
+      <c r="B420" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C420" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A421" s="1">
+        <v>45859</v>
+      </c>
+      <c r="B421" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C421" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A422" s="1">
+        <v>45859</v>
+      </c>
+      <c r="B422" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C422" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A423" s="1">
+        <v>45859</v>
+      </c>
+      <c r="B423" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C423" t="s">
+        <v>195</v>
+      </c>
+      <c r="F423" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A424" s="1">
+        <v>45859</v>
+      </c>
+      <c r="B424" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C424" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A425" s="1">
+        <v>45859</v>
+      </c>
+      <c r="B425" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C425" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A426" s="1">
+        <v>45859</v>
+      </c>
+      <c r="B426" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C426" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A427" s="1">
+        <v>45859</v>
+      </c>
+      <c r="B427" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E427" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A428" s="1">
+        <v>45859</v>
+      </c>
+      <c r="B428" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E428" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A429" s="1">
+        <v>45859</v>
+      </c>
+      <c r="B429" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E429" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A430" s="1">
+        <v>45859</v>
+      </c>
+      <c r="B430" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E430" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A431" s="1">
+        <v>45859</v>
+      </c>
+      <c r="B431" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D431" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A432" s="1">
+        <v>45859</v>
+      </c>
+      <c r="B432" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D432" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A433" s="1">
+        <v>45860</v>
+      </c>
+      <c r="B433" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C433" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A434" s="1">
+        <v>45860</v>
+      </c>
+      <c r="B434" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C434" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A435" s="1">
+        <v>45860</v>
+      </c>
+      <c r="B435" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C435" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A436" s="1">
+        <v>45860</v>
+      </c>
+      <c r="B436" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D436" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A437" s="1">
+        <v>45860</v>
+      </c>
+      <c r="B437" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E437" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A438" s="1">
+        <v>45860</v>
+      </c>
+      <c r="B438" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E438" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A439" s="1">
+        <v>45861</v>
+      </c>
+      <c r="B439" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C439" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A440" s="1">
+        <v>45861</v>
+      </c>
+      <c r="B440" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C440" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A441" s="1">
+        <v>45861</v>
+      </c>
+      <c r="B441" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E441" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A442" s="1">
+        <v>45862</v>
+      </c>
+      <c r="B442" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A443" s="1">
+        <v>45862</v>
+      </c>
+      <c r="B443" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C443" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A444" s="1">
+        <v>45862</v>
+      </c>
+      <c r="B444" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C444" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A445" s="1">
+        <v>45862</v>
+      </c>
+      <c r="B445" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C445" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A446" s="1">
+        <v>45863</v>
+      </c>
+      <c r="B446" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D446" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A447" s="1">
+        <v>45866</v>
+      </c>
+      <c r="B447" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C447" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A448" s="1">
+        <v>45866</v>
+      </c>
+      <c r="B448" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C448" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A449" s="1">
+        <v>45866</v>
+      </c>
+      <c r="B449" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C449" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A450" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B450" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C450" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A451" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B451" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C451" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A452" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B452" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C452" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A453" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B453" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C453" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A454" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B454" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C454" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A455" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B455" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C455" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A456" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B456" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C456" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A457" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B457" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C457" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A458" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B458" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C458" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A459" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B459" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C459" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A460" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B460" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C460" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A461" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B461" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C461" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A462" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B462" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E462" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A463" s="1">
+        <v>45869</v>
+      </c>
+      <c r="B463" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C463" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A464" s="1">
+        <v>45869</v>
+      </c>
+      <c r="B464" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C464" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A465" s="1">
+        <v>45869</v>
+      </c>
+      <c r="B465" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C465" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A466" s="1">
+        <v>45869</v>
+      </c>
+      <c r="B466" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C466" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A467" s="1">
+        <v>45869</v>
+      </c>
+      <c r="B467" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E467" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A468" s="1">
+        <v>45869</v>
+      </c>
+      <c r="B468" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E468" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A469" s="1">
+        <v>45869</v>
+      </c>
+      <c r="B469" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E469" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A470" s="1">
+        <v>45870</v>
+      </c>
+      <c r="B470" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C470" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A471" s="1">
+        <v>45870</v>
+      </c>
+      <c r="B471" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C471" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A472" s="1">
+        <v>45870</v>
+      </c>
+      <c r="B472" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C472" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A473" s="1">
+        <v>45870</v>
+      </c>
+      <c r="B473" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C473" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A474" s="1">
+        <v>45870</v>
+      </c>
+      <c r="B474" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C474" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A475" s="1">
+        <v>45870</v>
+      </c>
+      <c r="B475" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C475" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A476" s="1">
+        <v>45870</v>
+      </c>
+      <c r="B476" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D476" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A477" s="1">
+        <v>45870</v>
+      </c>
+      <c r="B477" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E477" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A478" s="1">
+        <v>45870</v>
+      </c>
+      <c r="B478" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E478" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A479" s="1">
+        <v>45871</v>
+      </c>
+      <c r="B479" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E479" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A480" s="1">
+        <v>45871</v>
+      </c>
+      <c r="B480" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E480" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A481" s="1">
+        <v>45871</v>
+      </c>
+      <c r="B481" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E481" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A482" s="1">
+        <v>45871</v>
+      </c>
+      <c r="B482" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E482" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A483" s="1">
+        <v>45871</v>
+      </c>
+      <c r="B483" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E483" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A484" s="1">
+        <v>45871</v>
+      </c>
+      <c r="B484" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E484" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A485" s="1">
+        <v>45871</v>
+      </c>
+      <c r="B485" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E485" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A486" s="1">
+        <v>45871</v>
+      </c>
+      <c r="B486" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E486" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A487" s="1">
+        <v>45871</v>
+      </c>
+      <c r="B487" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E487" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A488" s="1">
+        <v>45871</v>
+      </c>
+      <c r="B488" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E488" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A489" t="s">
+        <v>226</v>
+      </c>
+      <c r="B489" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C489" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A490" t="s">
+        <v>226</v>
+      </c>
+      <c r="B490" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C490" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A491" t="s">
+        <v>226</v>
+      </c>
+      <c r="B491" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C491" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A492" t="s">
+        <v>226</v>
+      </c>
+      <c r="B492" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C492" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A493" t="s">
+        <v>226</v>
+      </c>
+      <c r="B493" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C493" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A494" t="s">
+        <v>226</v>
+      </c>
+      <c r="B494" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C494" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A495" t="s">
+        <v>226</v>
+      </c>
+      <c r="B495" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C495" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A496" t="s">
+        <v>226</v>
+      </c>
+      <c r="B496" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C496" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A497" t="s">
+        <v>226</v>
+      </c>
+      <c r="B497" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C497" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A498" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B498" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C498" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A499" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B499" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C499" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A500" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B500" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C500" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A501" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B501" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C501" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A502" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B502" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C502" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A503" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B503" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C503" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A504" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B504" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C504" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A505" s="1">
+        <v>45877</v>
+      </c>
+      <c r="B505" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E505" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A506" s="1">
+        <v>45879</v>
+      </c>
+      <c r="B506" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C506" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A507" s="1">
+        <v>45879</v>
+      </c>
+      <c r="B507" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C507" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A508" t="s">
+        <v>232</v>
+      </c>
+      <c r="B508" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C508" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A509" t="s">
+        <v>232</v>
+      </c>
+      <c r="B509" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C509" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A510" t="s">
+        <v>232</v>
+      </c>
+      <c r="B510" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D510" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A511" t="s">
+        <v>232</v>
+      </c>
+      <c r="B511" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E511" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A512" s="1">
+        <v>45881</v>
+      </c>
+      <c r="B512" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C512" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A513" s="1">
+        <v>45881</v>
+      </c>
+      <c r="B513" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C513" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A514" s="1">
+        <v>45881</v>
+      </c>
+      <c r="B514" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C514" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A515" s="1">
+        <v>45881</v>
+      </c>
+      <c r="B515" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E515" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A516" s="1">
+        <v>45883</v>
+      </c>
+      <c r="B516" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C516" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A517" s="1">
+        <v>45883</v>
+      </c>
+      <c r="B517" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C517" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A518" s="1">
+        <v>45883</v>
+      </c>
+      <c r="B518" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C518" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A519" s="1">
+        <v>45883</v>
+      </c>
+      <c r="B519" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C519" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A520" s="1">
+        <v>45883</v>
+      </c>
+      <c r="B520" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C520" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A521" s="1">
+        <v>45883</v>
+      </c>
+      <c r="B521" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C521" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A522" s="1">
+        <v>45884</v>
+      </c>
+      <c r="B522" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C522" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A523" s="1">
+        <v>45884</v>
+      </c>
+      <c r="B523" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C523" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A524" s="1">
+        <v>45884</v>
+      </c>
+      <c r="B524" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C524" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A525" s="1">
+        <v>45884</v>
+      </c>
+      <c r="B525" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C525" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A526" s="1">
+        <v>45884</v>
+      </c>
+      <c r="B526" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C526" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A527" s="1">
+        <v>45887</v>
+      </c>
+      <c r="B527" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C527" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A528" s="1">
+        <v>45887</v>
+      </c>
+      <c r="B528" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C528" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A529" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B529" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C529" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A530" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B530" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E530" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A531" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B531" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C531" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A532" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B532" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C532" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A533" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B533" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C533" t="s">
+        <v>245</v>
+      </c>
+      <c r="E533" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A534" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B534" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E534" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A535" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B535" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E535" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A536" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B536" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E536" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A537" s="1">
+        <v>45891</v>
+      </c>
+      <c r="B537" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C537" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A538" s="1">
+        <v>45891</v>
+      </c>
+      <c r="B538" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C538" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A539" s="1">
+        <v>45891</v>
+      </c>
+      <c r="B539" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C539" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A540" s="1">
+        <v>45891</v>
+      </c>
+      <c r="B540" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C540" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A541" s="1">
+        <v>45891</v>
+      </c>
+      <c r="B541" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C541" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="542" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A542" s="1">
+        <v>45891</v>
+      </c>
+      <c r="B542" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C542" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="543" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A543" s="1">
+        <v>45891</v>
+      </c>
+      <c r="B543" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C543" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="544" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A544" s="1">
+        <v>45891</v>
+      </c>
+      <c r="B544" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D544" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="545" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A545" s="1">
+        <v>45891</v>
+      </c>
+      <c r="B545" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E545" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="546" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A546" s="1">
+        <v>45891</v>
+      </c>
+      <c r="B546" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D546" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="547" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A547" s="1">
+        <v>45894</v>
+      </c>
+      <c r="B547" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C547" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="548" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A548" s="1">
+        <v>45894</v>
+      </c>
+      <c r="B548" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C548" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="549" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A549" s="1">
+        <v>45894</v>
+      </c>
+      <c r="B549" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C549" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="550" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A550" s="1">
+        <v>45894</v>
+      </c>
+      <c r="B550" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D550" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="551" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A551" s="1">
+        <v>45894</v>
+      </c>
+      <c r="B551" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D551" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="552" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A552" s="1">
+        <v>45894</v>
+      </c>
+      <c r="B552" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D552" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="553" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A553" s="1">
+        <v>45894</v>
+      </c>
+      <c r="B553" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E553" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="554" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A554" s="1">
+        <v>45894</v>
+      </c>
+      <c r="B554" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D554" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="555" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A555" s="1">
+        <v>45895</v>
+      </c>
+      <c r="B555" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C555" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="556" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A556" s="1">
+        <v>45895</v>
+      </c>
+      <c r="B556" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C556" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="557" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A557" s="1">
+        <v>45895</v>
+      </c>
+      <c r="B557" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C557" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="558" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A558" s="1">
+        <v>45895</v>
+      </c>
+      <c r="B558" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C558" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="559" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A559" s="1">
+        <v>45895</v>
+      </c>
+      <c r="B559" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C559" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="560" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A560" s="1">
+        <v>45895</v>
+      </c>
+      <c r="B560" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C560" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="561" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A561" s="1">
+        <v>45895</v>
+      </c>
+      <c r="B561" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D561" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="562" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A562" s="1">
+        <v>45895</v>
+      </c>
+      <c r="B562" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D562" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="563" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A563" s="1">
+        <v>45896</v>
+      </c>
+      <c r="B563" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C563" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="564" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A564" s="1">
+        <v>45896</v>
+      </c>
+      <c r="B564" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C564" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="565" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A565" s="1">
+        <v>45896</v>
+      </c>
+      <c r="B565" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C565" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="566" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A566" s="1">
+        <v>45896</v>
+      </c>
+      <c r="B566" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C566" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="567" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A567" s="1">
+        <v>45896</v>
+      </c>
+      <c r="B567" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D567" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="568" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A568" s="1">
+        <v>45896</v>
+      </c>
+      <c r="B568" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D568" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="569" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A569" s="1">
+        <v>45896</v>
+      </c>
+      <c r="B569" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E569" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="570" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A570" s="1">
+        <v>45897</v>
+      </c>
+      <c r="B570" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D570" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="571" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A571" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B571" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C571" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="572" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A572" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B572" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C572" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="573" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A573" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B573" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C573" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="574" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A574" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B574" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C574" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="575" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A575" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B575" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C575" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="576" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A576" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B576" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C576" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="577" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A577" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B577" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E577" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="578" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A578" s="1">
+        <v>45901</v>
+      </c>
+      <c r="B578" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C578" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="579" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A579" s="1">
+        <v>45901</v>
+      </c>
+      <c r="B579" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="580" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A580" s="1">
+        <v>45901</v>
+      </c>
+      <c r="B580" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="581" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A581" s="1">
+        <v>45901</v>
+      </c>
+      <c r="B581" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D581" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="582" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A582" s="1">
+        <v>45901</v>
+      </c>
+      <c r="B582" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E582" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="583" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A583" s="1">
+        <v>45901</v>
+      </c>
+      <c r="B583" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D583" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="584" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A584" s="1">
+        <v>45901</v>
+      </c>
+      <c r="B584" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D584" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="585" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A585" s="1">
+        <v>45902</v>
+      </c>
+      <c r="B585" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C585" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="586" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A586" s="1">
+        <v>45902</v>
+      </c>
+      <c r="B586" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C586" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="587" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A587" s="1">
+        <v>45902</v>
+      </c>
+      <c r="B587" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C587" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="588" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A588" s="1">
+        <v>45902</v>
+      </c>
+      <c r="B588" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C588" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="589" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A589" s="1">
+        <v>45902</v>
+      </c>
+      <c r="B589" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C589" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="590" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A590" s="1">
+        <v>45902</v>
+      </c>
+      <c r="B590" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C590" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="591" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A591" s="1">
+        <v>45903</v>
+      </c>
+      <c r="B591" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C591" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="592" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A592" s="1">
+        <v>45903</v>
+      </c>
+      <c r="B592" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C592" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="593" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A593" s="1">
+        <v>45903</v>
+      </c>
+      <c r="B593" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C593" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="594" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A594" s="1">
+        <v>45903</v>
+      </c>
+      <c r="B594" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E594" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="595" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A595" s="1">
+        <v>45903</v>
+      </c>
+      <c r="B595" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D595" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="596" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A596" s="1">
+        <v>45908</v>
+      </c>
+      <c r="B596" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C596" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="597" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A597" s="1">
+        <v>45908</v>
+      </c>
+      <c r="B597" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C597" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="598" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A598" s="1">
+        <v>45908</v>
+      </c>
+      <c r="B598" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C598" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="599" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A599" s="1">
+        <v>45908</v>
+      </c>
+      <c r="B599" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C599" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="600" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A600" s="1">
+        <v>45908</v>
+      </c>
+      <c r="B600" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D600" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="601" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A601" s="1">
+        <v>45909</v>
+      </c>
+      <c r="B601" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C601" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="602" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A602" s="1">
+        <v>45909</v>
+      </c>
+      <c r="B602" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C602" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="603" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A603" s="1">
+        <v>45909</v>
+      </c>
+      <c r="B603" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D603" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="604" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A604" s="1">
+        <v>45912</v>
+      </c>
+      <c r="B604" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C604" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="605" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A605" s="1">
+        <v>45912</v>
+      </c>
+      <c r="B605" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C605" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="606" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A606" s="1">
+        <v>45913</v>
+      </c>
+      <c r="B606" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C606" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="607" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A607" s="1">
+        <v>45913</v>
+      </c>
+      <c r="B607" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C607" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="608" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A608" s="1">
+        <v>45913</v>
+      </c>
+      <c r="B608" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C608" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="609" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A609" s="1">
+        <v>45913</v>
+      </c>
+      <c r="B609" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C609" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="610" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A610" s="1">
+        <v>45880</v>
+      </c>
+      <c r="B610" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C610" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="611" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A611" s="1">
+        <v>45916</v>
+      </c>
+      <c r="B611" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C611" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="612" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A612" s="1">
+        <v>45916</v>
+      </c>
+      <c r="B612" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C612" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="613" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A613" s="1">
+        <v>45916</v>
+      </c>
+      <c r="B613" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C613" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="614" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A614" s="1">
+        <v>45916</v>
+      </c>
+      <c r="B614" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C614" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="615" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A615" s="1">
+        <v>45916</v>
+      </c>
+      <c r="B615" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C615" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="616" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A616" s="1">
+        <v>45916</v>
+      </c>
+      <c r="B616" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E616" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="617" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A617" s="1">
+        <v>45917</v>
+      </c>
+      <c r="B617" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C617" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="618" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A618" s="1">
+        <v>45917</v>
+      </c>
+      <c r="B618" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C618" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="619" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A619" s="1">
+        <v>45917</v>
+      </c>
+      <c r="B619" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C619" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="620" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A620" s="1">
+        <v>45917</v>
+      </c>
+      <c r="B620" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C620" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="621" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A621" s="1">
+        <v>45917</v>
+      </c>
+      <c r="B621" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C621" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="622" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A622" s="1">
+        <v>45917</v>
+      </c>
+      <c r="B622" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C622" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="623" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A623" s="1">
+        <v>45917</v>
+      </c>
+      <c r="B623" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C623" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="624" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A624" s="1">
+        <v>45917</v>
+      </c>
+      <c r="B624" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C624" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="625" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A625" s="1">
+        <v>45917</v>
+      </c>
+      <c r="B625" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E625" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="626" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A626" s="1">
+        <v>45918</v>
+      </c>
+      <c r="B626" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C626" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="627" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A627" s="1">
+        <v>45918</v>
+      </c>
+      <c r="B627" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C627" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="628" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A628" s="1">
+        <v>45918</v>
+      </c>
+      <c r="B628" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C628" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="629" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A629" s="1">
+        <v>45918</v>
+      </c>
+      <c r="B629" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E629" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="630" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A630" s="1">
+        <v>45918</v>
+      </c>
+      <c r="B630" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D630" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="631" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A631" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B631" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D631" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="632" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A632" s="1">
+        <v>45919</v>
+      </c>
+      <c r="B632" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C632" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="633" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A633" s="1">
+        <v>45919</v>
+      </c>
+      <c r="B633" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C633" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="634" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A634" s="1">
+        <v>45919</v>
+      </c>
+      <c r="B634" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C634" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="635" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A635" s="1">
+        <v>45919</v>
+      </c>
+      <c r="B635" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C635" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="636" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A636" s="1">
+        <v>45919</v>
+      </c>
+      <c r="B636" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C636" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="637" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A637" s="1">
+        <v>45919</v>
+      </c>
+      <c r="B637" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C637" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="638" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A638" s="1">
+        <v>45919</v>
+      </c>
+      <c r="B638" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C638" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="639" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A639" s="1">
+        <v>45920</v>
+      </c>
+      <c r="B639" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D639" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="640" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A640" s="1">
+        <v>45920</v>
+      </c>
+      <c r="B640" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D640" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="641" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A641" s="1">
+        <v>45920</v>
+      </c>
+      <c r="B641" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E641" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="642" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A642" s="1">
+        <v>45920</v>
+      </c>
+      <c r="B642" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E642" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="643" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A643" s="1">
+        <v>45921</v>
+      </c>
+      <c r="B643" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C643" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="644" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A644" s="1">
+        <v>45921</v>
+      </c>
+      <c r="B644" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C644" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="645" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A645" s="1">
+        <v>45921</v>
+      </c>
+      <c r="B645" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C645" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="646" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A646" s="1">
+        <v>45921</v>
+      </c>
+      <c r="B646" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C646" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="647" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A647" s="1">
+        <v>45921</v>
+      </c>
+      <c r="B647" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C647" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="648" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A648" s="1">
+        <v>45921</v>
+      </c>
+      <c r="B648" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C648" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="649" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A649" s="1">
+        <v>45923</v>
+      </c>
+      <c r="B649" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C649" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="650" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A650" s="1">
+        <v>45923</v>
+      </c>
+      <c r="B650" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C650" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="651" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A651" s="1">
+        <v>45923</v>
+      </c>
+      <c r="B651" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C651" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="652" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A652" s="1">
+        <v>45923</v>
+      </c>
+      <c r="B652" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C652" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="653" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A653" s="1">
+        <v>45923</v>
+      </c>
+      <c r="B653" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D653" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="654" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A654" s="1">
+        <v>45923</v>
+      </c>
+      <c r="B654" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E654" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="655" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A655" s="1">
+        <v>45924</v>
+      </c>
+      <c r="B655" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C655" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="656" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A656" s="1">
+        <v>45924</v>
+      </c>
+      <c r="B656" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C656" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A657" s="1">
+        <v>45924</v>
+      </c>
+      <c r="B657" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C657" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A658" s="1">
+        <v>45926</v>
+      </c>
+      <c r="B658" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C658" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A659" s="1">
+        <v>45926</v>
+      </c>
+      <c r="B659" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C659" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A660" s="1">
+        <v>45926</v>
+      </c>
+      <c r="B660" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C660" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A661" s="1">
+        <v>45926</v>
+      </c>
+      <c r="B661" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C661" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A662" s="1">
+        <v>45927</v>
+      </c>
+      <c r="B662" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C662" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="663" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A663" s="1">
+        <v>45927</v>
+      </c>
+      <c r="B663" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C663" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A664" s="1">
+        <v>45927</v>
+      </c>
+      <c r="B664" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C664" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A665" s="1">
+        <v>45927</v>
+      </c>
+      <c r="B665" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C665" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A666" s="1">
+        <v>45927</v>
+      </c>
+      <c r="B666" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C666" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data/Individuals - Training.xlsx
+++ b/data/Individuals - Training.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucas/Desktop/DPTO PRACTICAS PROF/WATFORD/watford-player-development/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alberto/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4137CC9-944C-7A4C-8F46-7C35B0446326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527DAE79-1E09-5747-B4A3-ADFE024C5E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="760" windowWidth="29400" windowHeight="18400" xr2:uid="{A2D0A931-C5F6-EF44-8E19-3B892526D62A}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="20020" xr2:uid="{A2D0A931-C5F6-EF44-8E19-3B892526D62A}"/>
   </bookViews>
   <sheets>
     <sheet name="Training individuales" sheetId="19" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="298">
   <si>
     <t>Ryan Andrews</t>
   </si>
@@ -128,18 +128,12 @@
     <t>Finishing</t>
   </si>
   <si>
-    <t>Interview</t>
-  </si>
-  <si>
     <t>DEFENDER 1V2 FINISHING WB CROSS WB</t>
   </si>
   <si>
     <t>Improve Crossing / Stop the Cross</t>
   </si>
   <si>
-    <t>Player Card</t>
-  </si>
-  <si>
     <t>Intensity Actions</t>
   </si>
   <si>
@@ -176,9 +170,6 @@
     <t>Swansea + Sheffield Wednesday Post-Match Clips</t>
   </si>
   <si>
-    <t>Player Meeting</t>
-  </si>
-  <si>
     <t>FINISH/CONDITIONAL</t>
   </si>
   <si>
@@ -236,9 +227,6 @@
     <t>Building - Offensive Game Model</t>
   </si>
   <si>
-    <t>Player Card Meeting</t>
-  </si>
-  <si>
     <t>Body Shape + Long Passing</t>
   </si>
   <si>
@@ -248,9 +236,6 @@
     <t>Opposition Analysis</t>
   </si>
   <si>
-    <t>Oxford Post Match Clips</t>
-  </si>
-  <si>
     <t>Different Situations of a 1v1 &amp; Finishing</t>
   </si>
   <si>
@@ -371,9 +356,6 @@
     <t>Passing</t>
   </si>
   <si>
-    <t>Player Meetin g</t>
-  </si>
-  <si>
     <t>vs Burnley Post-Match Clips</t>
   </si>
   <si>
@@ -449,9 +431,6 @@
     <t>Post-Luton</t>
   </si>
   <si>
-    <t>Interview Card Player</t>
-  </si>
-  <si>
     <t xml:space="preserve">Offensive Patterns -  Finish, movement and heading. Improve Crossing </t>
   </si>
   <si>
@@ -467,9 +446,6 @@
     <t>Individual technique profile and build up / Press out of possession</t>
   </si>
   <si>
-    <t>Interview card player</t>
-  </si>
-  <si>
     <t>Post-Stoke</t>
   </si>
   <si>
@@ -512,18 +488,12 @@
     <t>MEETING PLAYER.</t>
   </si>
   <si>
-    <t xml:space="preserve">NTERVIEW CARD PLAYER.  </t>
-  </si>
-  <si>
     <t>POST MATCH OXFORD</t>
   </si>
   <si>
     <t xml:space="preserve">DEFENSIVE CONCEPS. AERIAL DUEL &amp; DEF BACK POST/ FINISHING/ IMPROVE CROSS </t>
   </si>
   <si>
-    <t xml:space="preserve">INTERVIEW CARD PLAYER        </t>
-  </si>
-  <si>
     <t>FINISHING.BODY SHAPE &amp; MOVEMENT</t>
   </si>
   <si>
@@ -549,6 +519,417 @@
   </si>
   <si>
     <t>Zavier Massiah-Edwards</t>
+  </si>
+  <si>
+    <t>BODY SHAPE - UNDERSTANDING GAME</t>
+  </si>
+  <si>
+    <t>CLIPS LAST SEASON AND BODY SHAPE</t>
+  </si>
+  <si>
+    <t>Opposition Analysis Oxford Post Match Clips</t>
+  </si>
+  <si>
+    <t>review clips</t>
+  </si>
+  <si>
+    <t>Opposition Analysis Post-Match</t>
+  </si>
+  <si>
+    <t>Travis Akomeah</t>
+  </si>
+  <si>
+    <t>Tom Ince</t>
+  </si>
+  <si>
+    <t>Amar Sanghrajka</t>
+  </si>
+  <si>
+    <t>Marc Bola</t>
+  </si>
+  <si>
+    <t>DEFENSIVE CONCEPTS (AVOID CROSS &amp; BODY SHAPE)</t>
+  </si>
+  <si>
+    <t>Jack Grieves</t>
+  </si>
+  <si>
+    <t>Hector Kyprianou</t>
+  </si>
+  <si>
+    <t>BODY SHAPE &amp; BUILD UP</t>
+  </si>
+  <si>
+    <t>INDIVIDUAL TECHNIQUE - CONTROL/PASS</t>
+  </si>
+  <si>
+    <t>BUILD UP &amp; BODY SHAPE</t>
+  </si>
+  <si>
+    <t>Imra Louza</t>
+  </si>
+  <si>
+    <t>Edo Kayembe</t>
+  </si>
+  <si>
+    <t>Moussa Sissoko</t>
+  </si>
+  <si>
+    <t>Tom Dele-Bashiro</t>
+  </si>
+  <si>
+    <t>Vivaldo Semedo</t>
+  </si>
+  <si>
+    <t>PATTERNS FOCUS IN TIMING. BUILD UP&amp;RESTARS</t>
+  </si>
+  <si>
+    <t>Mileta Radjovic</t>
+  </si>
+  <si>
+    <t>POSITIONING GAME</t>
+  </si>
+  <si>
+    <t>Joao Ferreira</t>
+  </si>
+  <si>
+    <t>ANTICIPATE &amp; DEFENSIVE CONCEPTS</t>
+  </si>
+  <si>
+    <t>BODY SHAPE &amp; OFFENSIVE CONCEPTS</t>
+  </si>
+  <si>
+    <t>Jeremy Ngakia</t>
+  </si>
+  <si>
+    <t>BODY SHAPE &amp; FINISHING</t>
+  </si>
+  <si>
+    <t>POSITIONING GAME (post match)</t>
+  </si>
+  <si>
+    <t>ALL TEAM</t>
+  </si>
+  <si>
+    <t>DEFENSIVE CONCEPTS (ONE-TWO PASS DEFENCE &amp; AVOID CROSSES))</t>
+  </si>
+  <si>
+    <t>OFFENSIVE FINISHING</t>
+  </si>
+  <si>
+    <t>Luca Kjerrumgaard</t>
+  </si>
+  <si>
+    <t>FINISHING REACTION SHOTS</t>
+  </si>
+  <si>
+    <t>Build Up &amp; Relationship with 2-9-7</t>
+  </si>
+  <si>
+    <t>Patterns Special Focus in Timing &amp; Body Shape in Build Up/Restart</t>
+  </si>
+  <si>
+    <t>Imran Louza</t>
+  </si>
+  <si>
+    <t>Individual - Technical - Long Passing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POSITIONING GAME </t>
+  </si>
+  <si>
+    <t>Nestory Irankunda</t>
+  </si>
+  <si>
+    <t>Individual Technique - Body Shape &amp; Control</t>
+  </si>
+  <si>
+    <t>Individual Technique - Pass &amp; Finishing</t>
+  </si>
+  <si>
+    <t>Individual Technique - Body Shape &amp; Control - Pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Tobi Adeyemo</t>
+  </si>
+  <si>
+    <t>Individual - Finishing</t>
+  </si>
+  <si>
+    <t>Individual - Body Shape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Individual - Body Shape </t>
+  </si>
+  <si>
+    <t>Tom Dele-Bashiru</t>
+  </si>
+  <si>
+    <t>Mattie Pollock</t>
+  </si>
+  <si>
+    <t>Body Shape in Build Up</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 08/07/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10/07/2025</t>
+  </si>
+  <si>
+    <t>Othmane Maamma</t>
+  </si>
+  <si>
+    <t>Giorgi Chakvetadze</t>
+  </si>
+  <si>
+    <t>Movements Tactics of the Game Model</t>
+  </si>
+  <si>
+    <t>Ryan Porteous</t>
+  </si>
+  <si>
+    <t>POST MATCH LEYTON ORIENT (PRESEASON)</t>
+  </si>
+  <si>
+    <t>DRILLS SPEED AND FINISHING</t>
+  </si>
+  <si>
+    <t>DRILLS CROSS AND FINISHING 1ST POST</t>
+  </si>
+  <si>
+    <t>MEETING PLAYER. ATTITUDE</t>
+  </si>
+  <si>
+    <t>POST MATCH DEPORTIVO</t>
+  </si>
+  <si>
+    <t>POSITIONS WINGER AND FULLBACK</t>
+  </si>
+  <si>
+    <t>James Morris</t>
+  </si>
+  <si>
+    <t>RELATIONSHIP BETWEEN MF / WG. BUILD UP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 05/08/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FINISHING DIFERENT PROFILES. </t>
+  </si>
+  <si>
+    <t>BODY SHAPE IN BUILD UP. CONNECTED WITH 9/7-11</t>
+  </si>
+  <si>
+    <t>POSITIONING GAME. PLAY WITH 7 (1:1)</t>
+  </si>
+  <si>
+    <t>AVOID CROSS. CONNECTED WITH 9/11</t>
+  </si>
+  <si>
+    <t>BODY SHAPE. CONTROL WITH ROTATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11/08/2025</t>
+  </si>
+  <si>
+    <t>CONDITIONAL TRAINING</t>
+  </si>
+  <si>
+    <t>Max Alleyne</t>
+  </si>
+  <si>
+    <t>POSITONING GAME POST MATCH</t>
+  </si>
+  <si>
+    <t>ANTICIPATE &amp; TO FIND #9/#11</t>
+  </si>
+  <si>
+    <t>MOVEMENTS AND TIMING. IMPROVING CROSS &amp; FINISHING</t>
+  </si>
+  <si>
+    <t>2 TYPES OFCONTROL FOR PROGRESSION &amp; FINISHING</t>
+  </si>
+  <si>
+    <t>Josh Mullins</t>
+  </si>
+  <si>
+    <t>FINISHING AND IMPROVE CROSS</t>
+  </si>
+  <si>
+    <t>TACTICS PATTERNS &amp; IMPROVE CROSS AND FINISHING</t>
+  </si>
+  <si>
+    <t>IMPROVE LEFT FOOT IN BUILD UP. FIND #9 #11</t>
+  </si>
+  <si>
+    <t>POSITIONING CENTRE BACK</t>
+  </si>
+  <si>
+    <t>FINISHING CONTROL+ SHOT / TURN ON QUICKER + SHOT</t>
+  </si>
+  <si>
+    <t>DRILLS LEFT SIDE / FINISHING BOTH PROFILES</t>
+  </si>
+  <si>
+    <t>ATTITUDE / USE THE BODY</t>
+  </si>
+  <si>
+    <t>POST MATCH</t>
+  </si>
+  <si>
+    <t>POST MATCH POSITIONING AND FOCUS IN MATCH</t>
+  </si>
+  <si>
+    <t>OFFENSIVE PATTERNS - FINISHING</t>
+  </si>
+  <si>
+    <t>OFFENSIVE PATTERNS - FINISHING-CROSSES</t>
+  </si>
+  <si>
+    <t>FREE FINISHING</t>
+  </si>
+  <si>
+    <t>INDIVIDUAL OPPONENT</t>
+  </si>
+  <si>
+    <t>POST MATCH POSITIONING</t>
+  </si>
+  <si>
+    <t>PROTECT BALL &amp; FACE PLAY</t>
+  </si>
+  <si>
+    <t>OFFENSIVE MOVEMENTS</t>
+  </si>
+  <si>
+    <t>DEFENSIVE CONCEPTS &amp; BUIDL UP</t>
+  </si>
+  <si>
+    <t>DEFENDER 2ND POST. DEFENSIVE CONCEPTS</t>
+  </si>
+  <si>
+    <t>MOVEMENTS IN PRESS (HIGH PRESS/MID BLOCK)</t>
+  </si>
+  <si>
+    <t>PROTECT THE BALL &amp; TURN FAST</t>
+  </si>
+  <si>
+    <t>BODY SHAPE FOR SWITCH</t>
+  </si>
+  <si>
+    <t>POSITION WINGER &amp; ATTITUDE</t>
+  </si>
+  <si>
+    <t>FOCUS IN MATCH</t>
+  </si>
+  <si>
+    <t>PROTECT THE BALL &amp; PLAY FACE</t>
+  </si>
+  <si>
+    <t>TECHNIQUE INDIVIDUAL &amp; FINISHING</t>
+  </si>
+  <si>
+    <t>DEFENSIVE CONCEPTS / BUILD UP</t>
+  </si>
+  <si>
+    <t>DEFENSIVE MOVEMENTS / HIGH PRESS- MID BLOCK</t>
+  </si>
+  <si>
+    <t>PERSONAL INTERVIEW. POSITION WINGER/ATTITUDE</t>
+  </si>
+  <si>
+    <t>Jeremy Petris</t>
+  </si>
+  <si>
+    <t>BUILD UP IN GOAL KICK. SOLUTIONS &amp; MOVEMENTS</t>
+  </si>
+  <si>
+    <t>Nepalys Mendy</t>
+  </si>
+  <si>
+    <t>PERSONAL INTERVIEW. CARD PLAYER</t>
+  </si>
+  <si>
+    <t>Formose Mendy</t>
+  </si>
+  <si>
+    <t>INDIVIDUAL TECHNIQUE - BUILD UP &amp; RESTART</t>
+  </si>
+  <si>
+    <t>INDIVIDUAL TECHNIQUE - BODY SHAPE &amp; CONTROL/PASS</t>
+  </si>
+  <si>
+    <t>INDIVIDUAL TECHNIQUE - BODY SHAPE &amp; CONTROL/PASS&amp;FINISNING</t>
+  </si>
+  <si>
+    <t>LONG PASS IN BUILD UP &amp; IMPROVING LEFT FOOT</t>
+  </si>
+  <si>
+    <t>IMPROVING LEFT FOOT</t>
+  </si>
+  <si>
+    <t>BUILD UP &amp; IMPROVING BODY SHAPE IN RESTART</t>
+  </si>
+  <si>
+    <t>DOUBLE FINISHING &amp; IMPROVING 1V1</t>
+  </si>
+  <si>
+    <t>ATTITUDE IN TRAINING</t>
+  </si>
+  <si>
+    <t>ATTITUDE IN MATCH / USED YOUR BODY. EXAMPLES RASHFORD/VINICIUS/LEAO</t>
+  </si>
+  <si>
+    <t>CONNECT WITH WB + TO ATTACK BOX + IMPROVING CROSS</t>
+  </si>
+  <si>
+    <t>REACTIONS SHOT</t>
+  </si>
+  <si>
+    <t>CARD PLAYER</t>
+  </si>
+  <si>
+    <t>IMPROVING CROSSES &amp; SPECIFIC FINISHING</t>
+  </si>
+  <si>
+    <t>PERSONAL INTERVIEW</t>
+  </si>
+  <si>
+    <t>INDIVIDUAL SESSION PATTERNS LONG PASS &amp; FINISHING</t>
+  </si>
+  <si>
+    <t>INDIVIDUAL SESSION CENTRE BACK (BODY SHAPE IN BUILD UP &amp; RECOVERY PASSES)</t>
+  </si>
+  <si>
+    <t>INDIVIDUAL SESSION NON SQUAD. SSG &amp; PATTERNS &amp; FINISHING</t>
+  </si>
+  <si>
+    <t>FINISHING DRILL</t>
+  </si>
+  <si>
+    <t>INDIVIDUAL TECHNIQUE &amp; FINISHING</t>
+  </si>
+  <si>
+    <t>SPECIFIC FINISHING</t>
+  </si>
+  <si>
+    <t>IMPROVING CROSSES 1st POST</t>
+  </si>
+  <si>
+    <t>BOX POSITION &amp; FINISHING</t>
+  </si>
+  <si>
+    <t>LONG PASS &amp; BODY SHAPE</t>
+  </si>
+  <si>
+    <t>SPECIFIC TECNHIQUE DEFENSIVE</t>
+  </si>
+  <si>
+    <t>INDIVIDUAL TECHNIQUE LONG BALL</t>
   </si>
 </sst>
 </file>
@@ -938,26 +1319,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D1F4C8-8FC1-6D4C-8100-17BA8EC0B4E7}">
-  <dimension ref="A1:E328"/>
+  <dimension ref="A1:F700"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A662" workbookViewId="0">
+      <selection activeCell="C704" sqref="C704"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.33203125" customWidth="1"/>
+    <col min="2" max="2" width="23.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="56.83203125" customWidth="1"/>
+    <col min="4" max="4" width="46.83203125" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>17</v>
@@ -988,10 +1369,10 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" t="s">
-        <v>33</v>
+        <v>83</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1002,7 +1383,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1013,7 +1394,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1024,7 +1405,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1035,7 +1416,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1045,8 +1426,8 @@
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D8" t="s">
-        <v>18</v>
+      <c r="D8" s="3" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1057,7 +1438,7 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1068,7 +1449,7 @@
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1079,7 +1460,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1090,7 +1471,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1101,7 +1482,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1112,7 +1493,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1123,7 +1504,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1134,7 +1515,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -1145,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -1156,7 +1537,7 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1178,7 +1559,7 @@
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -1189,7 +1570,7 @@
         <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -1244,7 +1625,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -1255,7 +1636,7 @@
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -1266,7 +1647,7 @@
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -1277,7 +1658,7 @@
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -1288,7 +1669,7 @@
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1310,10 +1691,10 @@
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>78</v>
-      </c>
-      <c r="D32" t="s">
-        <v>18</v>
+        <v>73</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -1324,7 +1705,7 @@
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -1335,7 +1716,7 @@
         <v>5</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -1346,7 +1727,7 @@
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -1357,7 +1738,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -1368,7 +1749,7 @@
         <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -1379,7 +1760,7 @@
         <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -1390,7 +1771,7 @@
         <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -1401,7 +1782,7 @@
         <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -1412,7 +1793,7 @@
         <v>5</v>
       </c>
       <c r="D41" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -1423,7 +1804,7 @@
         <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -1434,7 +1815,7 @@
         <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -1445,7 +1826,7 @@
         <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -1455,11 +1836,11 @@
       <c r="B45" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D45" t="s">
-        <v>18</v>
+      <c r="D45" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="E45" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -1470,7 +1851,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -1481,7 +1862,7 @@
         <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -1492,7 +1873,7 @@
         <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -1503,7 +1884,7 @@
         <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -1514,7 +1895,7 @@
         <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -1525,7 +1906,7 @@
         <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -1536,7 +1917,7 @@
         <v>5</v>
       </c>
       <c r="C52" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -1547,7 +1928,7 @@
         <v>5</v>
       </c>
       <c r="C53" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -1558,7 +1939,7 @@
         <v>5</v>
       </c>
       <c r="E54" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -1569,7 +1950,7 @@
         <v>5</v>
       </c>
       <c r="C55" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -1580,7 +1961,7 @@
         <v>5</v>
       </c>
       <c r="E56" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -1591,7 +1972,7 @@
         <v>5</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -1602,7 +1983,7 @@
         <v>5</v>
       </c>
       <c r="C58" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -1624,7 +2005,7 @@
         <v>5</v>
       </c>
       <c r="E60" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -1635,7 +2016,7 @@
         <v>5</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -1645,8 +2026,9 @@
       <c r="B62" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>69</v>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -1657,7 +2039,7 @@
         <v>5</v>
       </c>
       <c r="C63" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -1668,7 +2050,7 @@
         <v>5</v>
       </c>
       <c r="E64" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -1679,7 +2061,7 @@
         <v>5</v>
       </c>
       <c r="C65" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -1689,8 +2071,8 @@
       <c r="B66" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D66" t="s">
-        <v>69</v>
+      <c r="E66" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -1701,10 +2083,10 @@
         <v>5</v>
       </c>
       <c r="C67" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E67" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -1714,8 +2096,8 @@
       <c r="B68" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D68" t="s">
-        <v>151</v>
+      <c r="E68" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -1726,7 +2108,7 @@
         <v>5</v>
       </c>
       <c r="E69" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -1736,8 +2118,8 @@
       <c r="B70" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D70" t="s">
-        <v>18</v>
+      <c r="D70" s="3" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -1747,8 +2129,8 @@
       <c r="B71" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D71" t="s">
-        <v>150</v>
+      <c r="E71" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -1814,7 +2196,7 @@
         <v>6</v>
       </c>
       <c r="E77" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -1825,7 +2207,7 @@
         <v>6</v>
       </c>
       <c r="C78" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -1836,13 +2218,13 @@
         <v>6</v>
       </c>
       <c r="C79" t="s">
+        <v>49</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E79" t="s">
         <v>52</v>
-      </c>
-      <c r="D79" t="s">
-        <v>18</v>
-      </c>
-      <c r="E79" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -1853,7 +2235,7 @@
         <v>6</v>
       </c>
       <c r="E80" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -1863,11 +2245,8 @@
       <c r="B81" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D81" t="s">
-        <v>69</v>
-      </c>
       <c r="E81" t="s">
-        <v>70</v>
+        <v>163</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -1878,7 +2257,7 @@
         <v>6</v>
       </c>
       <c r="C82" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -1889,7 +2268,7 @@
         <v>6</v>
       </c>
       <c r="E83" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -1899,11 +2278,11 @@
       <c r="B84" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D84" t="s">
-        <v>18</v>
+      <c r="D84" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="E84" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -1914,7 +2293,7 @@
         <v>6</v>
       </c>
       <c r="E85" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -1925,7 +2304,7 @@
         <v>6</v>
       </c>
       <c r="C86" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -1936,7 +2315,7 @@
         <v>6</v>
       </c>
       <c r="C87" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -1947,7 +2326,7 @@
         <v>6</v>
       </c>
       <c r="C88" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -1957,11 +2336,11 @@
       <c r="B89" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D89" t="s">
-        <v>18</v>
+      <c r="D89" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="E89" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -1972,7 +2351,7 @@
         <v>6</v>
       </c>
       <c r="E90" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -1983,7 +2362,7 @@
         <v>6</v>
       </c>
       <c r="E91" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -2007,8 +2386,8 @@
       <c r="C93" t="s">
         <v>29</v>
       </c>
-      <c r="D93" t="s">
-        <v>14</v>
+      <c r="E93" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -2074,7 +2453,7 @@
         <v>11</v>
       </c>
       <c r="C99" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -2085,7 +2464,7 @@
         <v>11</v>
       </c>
       <c r="C100" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -2096,7 +2475,7 @@
         <v>11</v>
       </c>
       <c r="C101" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -2118,7 +2497,7 @@
         <v>11</v>
       </c>
       <c r="C103" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -2129,10 +2508,10 @@
         <v>11</v>
       </c>
       <c r="C104" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E104" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
@@ -2143,7 +2522,7 @@
         <v>11</v>
       </c>
       <c r="C105" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -2154,7 +2533,7 @@
         <v>11</v>
       </c>
       <c r="C106" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -2165,7 +2544,7 @@
         <v>11</v>
       </c>
       <c r="C107" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -2176,7 +2555,7 @@
         <v>11</v>
       </c>
       <c r="C108" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -2198,7 +2577,7 @@
         <v>11</v>
       </c>
       <c r="C110" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
@@ -2209,7 +2588,7 @@
         <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -2220,7 +2599,7 @@
         <v>11</v>
       </c>
       <c r="C112" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -2231,7 +2610,7 @@
         <v>11</v>
       </c>
       <c r="C113" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -2242,7 +2621,7 @@
         <v>11</v>
       </c>
       <c r="C114" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -2252,11 +2631,11 @@
       <c r="B115" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D115" t="s">
-        <v>18</v>
+      <c r="D115" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="E115" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -2289,7 +2668,7 @@
         <v>11</v>
       </c>
       <c r="C118" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -2311,7 +2690,7 @@
         <v>11</v>
       </c>
       <c r="C120" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
@@ -2322,7 +2701,7 @@
         <v>11</v>
       </c>
       <c r="C121" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
@@ -2333,7 +2712,7 @@
         <v>11</v>
       </c>
       <c r="C122" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
@@ -2344,7 +2723,7 @@
         <v>11</v>
       </c>
       <c r="C123" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
@@ -2355,7 +2734,7 @@
         <v>11</v>
       </c>
       <c r="C124" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -2365,8 +2744,8 @@
       <c r="B125" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D125" t="s">
-        <v>157</v>
+      <c r="D125" s="3" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
@@ -2377,7 +2756,7 @@
         <v>11</v>
       </c>
       <c r="C126" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
@@ -2388,7 +2767,7 @@
         <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
@@ -2431,8 +2810,8 @@
       <c r="B131" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D131" t="s">
-        <v>30</v>
+      <c r="D131" s="3" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
@@ -2454,7 +2833,7 @@
         <v>4</v>
       </c>
       <c r="C133" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
@@ -2465,7 +2844,7 @@
         <v>4</v>
       </c>
       <c r="C134" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
@@ -2487,7 +2866,7 @@
         <v>4</v>
       </c>
       <c r="C136" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
@@ -2498,7 +2877,7 @@
         <v>4</v>
       </c>
       <c r="C137" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
@@ -2509,7 +2888,7 @@
         <v>4</v>
       </c>
       <c r="C138" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
@@ -2520,7 +2899,7 @@
         <v>4</v>
       </c>
       <c r="E139" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
@@ -2530,11 +2909,11 @@
       <c r="B140" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D140" t="s">
-        <v>46</v>
+      <c r="D140" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="E140" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
@@ -2545,7 +2924,7 @@
         <v>4</v>
       </c>
       <c r="E141" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
@@ -2556,7 +2935,7 @@
         <v>4</v>
       </c>
       <c r="C142" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
@@ -2567,7 +2946,7 @@
         <v>4</v>
       </c>
       <c r="C143" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
@@ -2578,7 +2957,7 @@
         <v>4</v>
       </c>
       <c r="E144" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
@@ -2588,8 +2967,8 @@
       <c r="B145" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D145" t="s">
-        <v>46</v>
+      <c r="D145" s="3" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
@@ -2600,10 +2979,10 @@
         <v>4</v>
       </c>
       <c r="C146" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E146" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
@@ -2614,7 +2993,7 @@
         <v>4</v>
       </c>
       <c r="C147" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
@@ -2625,7 +3004,7 @@
         <v>4</v>
       </c>
       <c r="C148" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
@@ -2635,11 +3014,11 @@
       <c r="B149" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D149" t="s">
-        <v>46</v>
+      <c r="D149" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="E149" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
@@ -2649,8 +3028,8 @@
       <c r="B150" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D150" t="s">
-        <v>111</v>
+      <c r="D150" s="3" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
@@ -2661,7 +3040,7 @@
         <v>4</v>
       </c>
       <c r="C151" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
@@ -2672,10 +3051,10 @@
         <v>4</v>
       </c>
       <c r="C152" t="s">
-        <v>113</v>
-      </c>
-      <c r="D152" t="s">
-        <v>46</v>
+        <v>107</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
@@ -2686,10 +3065,10 @@
         <v>4</v>
       </c>
       <c r="C153" t="s">
-        <v>115</v>
-      </c>
-      <c r="D153" t="s">
-        <v>46</v>
+        <v>109</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
@@ -2700,7 +3079,7 @@
         <v>4</v>
       </c>
       <c r="C154" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
@@ -2727,7 +3106,7 @@
         <v>4</v>
       </c>
       <c r="C157" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
@@ -2748,8 +3127,8 @@
       <c r="B159" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D159" t="s">
-        <v>14</v>
+      <c r="E159" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
@@ -2771,7 +3150,7 @@
         <v>2</v>
       </c>
       <c r="C161" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
@@ -2781,11 +3160,11 @@
       <c r="B162" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D162" t="s">
-        <v>33</v>
+      <c r="D162" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="E162" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
@@ -2796,7 +3175,7 @@
         <v>2</v>
       </c>
       <c r="C163" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
@@ -2807,7 +3186,7 @@
         <v>2</v>
       </c>
       <c r="E164" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
@@ -2818,7 +3197,7 @@
         <v>2</v>
       </c>
       <c r="C165" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
@@ -2829,7 +3208,7 @@
         <v>2</v>
       </c>
       <c r="E166" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
@@ -2840,7 +3219,7 @@
         <v>2</v>
       </c>
       <c r="E167" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
@@ -2862,7 +3241,7 @@
         <v>2</v>
       </c>
       <c r="E169" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
@@ -2873,7 +3252,7 @@
         <v>2</v>
       </c>
       <c r="C170" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
@@ -2884,7 +3263,7 @@
         <v>2</v>
       </c>
       <c r="C171" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
@@ -2895,7 +3274,7 @@
         <v>2</v>
       </c>
       <c r="C172" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
@@ -2906,7 +3285,7 @@
         <v>2</v>
       </c>
       <c r="C173" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
@@ -2917,7 +3296,7 @@
         <v>2</v>
       </c>
       <c r="C174" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
@@ -2928,7 +3307,7 @@
         <v>2</v>
       </c>
       <c r="C175" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
@@ -2950,7 +3329,7 @@
         <v>13</v>
       </c>
       <c r="C177" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
@@ -2960,8 +3339,8 @@
       <c r="B178" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D178" t="s">
-        <v>30</v>
+      <c r="D178" s="3" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
@@ -2972,7 +3351,7 @@
         <v>13</v>
       </c>
       <c r="C179" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
@@ -2982,11 +3361,11 @@
       <c r="B180" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D180" t="s">
-        <v>66</v>
+      <c r="D180" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="E180" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
@@ -2997,7 +3376,7 @@
         <v>13</v>
       </c>
       <c r="C181" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
@@ -3007,8 +3386,8 @@
       <c r="B182" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D182" t="s">
-        <v>69</v>
+      <c r="E182" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
@@ -3030,7 +3409,7 @@
         <v>13</v>
       </c>
       <c r="C184" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
@@ -3040,11 +3419,11 @@
       <c r="B185" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D185" t="s">
-        <v>46</v>
+      <c r="D185" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="E185" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
@@ -3055,7 +3434,7 @@
         <v>13</v>
       </c>
       <c r="E186" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
@@ -3065,8 +3444,8 @@
       <c r="B187" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D187" t="s">
-        <v>46</v>
+      <c r="D187" s="3" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
@@ -3076,8 +3455,8 @@
       <c r="B188" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D188" t="s">
-        <v>46</v>
+      <c r="D188" s="3" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
@@ -3087,8 +3466,8 @@
       <c r="B189" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D189" t="s">
-        <v>69</v>
+      <c r="E189" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
@@ -3098,8 +3477,9 @@
       <c r="B190" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D190" s="3" t="s">
-        <v>69</v>
+      <c r="D190" s="3"/>
+      <c r="E190" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
@@ -3109,8 +3489,8 @@
       <c r="B191" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D191" t="s">
-        <v>69</v>
+      <c r="E191" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
@@ -3121,7 +3501,7 @@
         <v>13</v>
       </c>
       <c r="E192" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
@@ -3132,7 +3512,7 @@
         <v>13</v>
       </c>
       <c r="E193" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
@@ -3143,10 +3523,10 @@
         <v>13</v>
       </c>
       <c r="C194" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E194" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
@@ -3157,7 +3537,7 @@
         <v>13</v>
       </c>
       <c r="C195" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
@@ -3168,10 +3548,10 @@
         <v>13</v>
       </c>
       <c r="D196" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E196" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
@@ -3182,10 +3562,10 @@
         <v>13</v>
       </c>
       <c r="C197" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E197" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
@@ -3195,7 +3575,7 @@
       <c r="B198" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D198" t="s">
+      <c r="E198" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3217,7 +3597,7 @@
       <c r="B200" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D200" t="s">
+      <c r="E200" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3295,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="C207" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
@@ -3342,7 +3722,7 @@
         <v>0</v>
       </c>
       <c r="C211" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
@@ -3353,7 +3733,7 @@
         <v>0</v>
       </c>
       <c r="C212" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
@@ -3364,7 +3744,7 @@
         <v>0</v>
       </c>
       <c r="C213" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
@@ -3375,7 +3755,7 @@
         <v>0</v>
       </c>
       <c r="C214" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
@@ -3396,8 +3776,8 @@
       <c r="B216" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D216" t="s">
-        <v>69</v>
+      <c r="E216" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
@@ -3408,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E217" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
@@ -3421,8 +3801,9 @@
       <c r="B218" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D218" s="3" t="s">
-        <v>69</v>
+      <c r="D218" s="3"/>
+      <c r="E218" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
@@ -3433,7 +3814,7 @@
         <v>0</v>
       </c>
       <c r="E219" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
@@ -3444,7 +3825,7 @@
         <v>0</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
@@ -3455,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="C221" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
@@ -3466,7 +3847,7 @@
         <v>0</v>
       </c>
       <c r="E222" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
@@ -3477,7 +3858,7 @@
         <v>0</v>
       </c>
       <c r="C223" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
@@ -3488,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="C224" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
@@ -3499,7 +3880,7 @@
         <v>0</v>
       </c>
       <c r="C225" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
@@ -3510,7 +3891,7 @@
         <v>0</v>
       </c>
       <c r="C226" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
@@ -3521,7 +3902,7 @@
         <v>0</v>
       </c>
       <c r="D227" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
@@ -3553,8 +3934,8 @@
       <c r="B230" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D230" t="s">
-        <v>30</v>
+      <c r="D230" s="3" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
@@ -3575,11 +3956,11 @@
       <c r="B232" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D232" t="s">
-        <v>33</v>
+      <c r="D232" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="E232" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
@@ -3590,7 +3971,7 @@
         <v>7</v>
       </c>
       <c r="C233" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
@@ -3612,7 +3993,7 @@
         <v>7</v>
       </c>
       <c r="C235" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
@@ -3623,7 +4004,7 @@
         <v>7</v>
       </c>
       <c r="C236" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
@@ -3645,10 +4026,10 @@
         <v>7</v>
       </c>
       <c r="C238" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E238" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
@@ -3659,7 +4040,7 @@
         <v>7</v>
       </c>
       <c r="E239" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
@@ -3670,7 +4051,7 @@
         <v>7</v>
       </c>
       <c r="E240" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
@@ -3681,7 +4062,7 @@
         <v>7</v>
       </c>
       <c r="C241" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
@@ -3692,7 +4073,7 @@
         <v>7</v>
       </c>
       <c r="C242" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
@@ -3703,7 +4084,7 @@
         <v>3</v>
       </c>
       <c r="C243" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
@@ -3714,9 +4095,9 @@
         <v>3</v>
       </c>
       <c r="C244" t="s">
-        <v>77</v>
-      </c>
-      <c r="D244" t="s">
+        <v>72</v>
+      </c>
+      <c r="E244" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3761,7 +4142,7 @@
         <v>3</v>
       </c>
       <c r="C248" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
@@ -3826,8 +4207,8 @@
       <c r="B254" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D254" t="s">
-        <v>30</v>
+      <c r="D254" s="3" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
@@ -3849,7 +4230,7 @@
         <v>3</v>
       </c>
       <c r="C256" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
@@ -3860,7 +4241,7 @@
         <v>3</v>
       </c>
       <c r="E257" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
@@ -3871,7 +4252,7 @@
         <v>3</v>
       </c>
       <c r="C258" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
@@ -3882,7 +4263,7 @@
         <v>3</v>
       </c>
       <c r="C259" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
@@ -3895,8 +4276,8 @@
       <c r="C260" t="s">
         <v>29</v>
       </c>
-      <c r="D260" t="s">
-        <v>18</v>
+      <c r="D260" s="3" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
@@ -3907,7 +4288,7 @@
         <v>3</v>
       </c>
       <c r="C261" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
@@ -3918,7 +4299,7 @@
         <v>3</v>
       </c>
       <c r="C262" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
@@ -3929,7 +4310,7 @@
         <v>3</v>
       </c>
       <c r="C263" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
@@ -3940,7 +4321,7 @@
         <v>3</v>
       </c>
       <c r="C264" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
@@ -3951,7 +4332,7 @@
         <v>3</v>
       </c>
       <c r="C265" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
@@ -3973,7 +4354,7 @@
         <v>3</v>
       </c>
       <c r="E267" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
@@ -3984,7 +4365,7 @@
         <v>3</v>
       </c>
       <c r="C268" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
@@ -3995,7 +4376,7 @@
         <v>3</v>
       </c>
       <c r="C269" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
@@ -4006,7 +4387,7 @@
         <v>3</v>
       </c>
       <c r="C270" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
@@ -4017,7 +4398,7 @@
         <v>3</v>
       </c>
       <c r="E271" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
@@ -4028,7 +4409,7 @@
         <v>3</v>
       </c>
       <c r="C272" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
@@ -4039,7 +4420,7 @@
         <v>3</v>
       </c>
       <c r="C273" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
@@ -4050,7 +4431,7 @@
         <v>3</v>
       </c>
       <c r="C274" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
@@ -4058,7 +4439,7 @@
         <v>45697</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C275" s="3" t="s">
         <v>29</v>
@@ -4070,7 +4451,7 @@
         <v>45698</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C276" s="3" t="s">
         <v>29</v>
@@ -4082,10 +4463,10 @@
         <v>45706</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D277" s="3"/>
     </row>
@@ -4094,10 +4475,10 @@
         <v>45707</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D278" s="3"/>
     </row>
@@ -4106,13 +4487,13 @@
         <v>45715</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D279" s="3" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
@@ -4120,10 +4501,10 @@
         <v>45722</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D280" t="s">
-        <v>137</v>
+        <v>155</v>
+      </c>
+      <c r="D280" s="3" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
@@ -4131,10 +4512,10 @@
         <v>45723</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C281" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
@@ -4142,10 +4523,10 @@
         <v>45726</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C282" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
@@ -4153,10 +4534,10 @@
         <v>45730</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C283" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
@@ -4164,10 +4545,10 @@
         <v>45743</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D284" t="s">
-        <v>161</v>
+        <v>155</v>
+      </c>
+      <c r="D284" s="3" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
@@ -4175,10 +4556,10 @@
         <v>45707</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D285" s="3"/>
       <c r="E285" s="3"/>
@@ -4188,10 +4569,10 @@
         <v>45713</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D286" s="3"/>
       <c r="E286" s="3"/>
@@ -4201,10 +4582,10 @@
         <v>45716</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D287" s="3"/>
       <c r="E287" s="3"/>
@@ -4214,10 +4595,10 @@
         <v>45720</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D288" t="s">
-        <v>143</v>
+        <v>156</v>
+      </c>
+      <c r="D288" s="3" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
@@ -4225,10 +4606,10 @@
         <v>45723</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C289" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
@@ -4236,10 +4617,10 @@
         <v>45727</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D290" t="s">
-        <v>143</v>
+        <v>156</v>
+      </c>
+      <c r="D290" s="3" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
@@ -4247,10 +4628,10 @@
         <v>45729</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C291" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
@@ -4258,10 +4639,10 @@
         <v>45730</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C292" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
@@ -4269,10 +4650,10 @@
         <v>45741</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C293" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
@@ -4280,10 +4661,10 @@
         <v>45742</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="D294" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
@@ -4291,10 +4672,10 @@
         <v>45743</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C295" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
@@ -4302,11 +4683,11 @@
         <v>45692</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C296" s="3"/>
       <c r="D296" s="3" t="s">
-        <v>18</v>
+        <v>149</v>
       </c>
       <c r="E296" s="3"/>
     </row>
@@ -4315,14 +4696,14 @@
         <v>45693</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D297" s="3"/>
       <c r="E297" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
@@ -4330,10 +4711,10 @@
         <v>45694</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D298" s="3"/>
       <c r="E298" s="3"/>
@@ -4343,27 +4724,25 @@
         <v>45695</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C299" s="3"/>
-      <c r="D299" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E299" s="3"/>
+      <c r="D299" s="3"/>
+      <c r="E299" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" s="4">
         <v>45698</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C300" s="3"/>
-      <c r="D300" s="3" t="s">
-        <v>69</v>
-      </c>
+      <c r="D300" s="3"/>
       <c r="E300" s="3" t="s">
-        <v>126</v>
+        <v>165</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
@@ -4371,12 +4750,12 @@
         <v>45701</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C301" s="3"/>
       <c r="D301" s="3"/>
       <c r="E301" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
@@ -4384,25 +4763,25 @@
         <v>45702</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C302" s="3"/>
-      <c r="D302" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E302" s="3"/>
+      <c r="D302" s="3"/>
+      <c r="E302" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" s="4">
         <v>45706</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C303" s="3"/>
       <c r="D303" s="3"/>
       <c r="E303" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
@@ -4410,16 +4789,16 @@
         <v>45707</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D304" s="3" t="s">
-        <v>18</v>
+        <v>149</v>
       </c>
       <c r="E304" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
@@ -4427,38 +4806,38 @@
         <v>45709</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C305" s="3"/>
-      <c r="D305" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E305" s="3"/>
+      <c r="D305" s="3"/>
+      <c r="E305" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" s="4">
         <v>45710</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C306" s="3"/>
-      <c r="D306" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E306" s="3"/>
+      <c r="D306" s="3"/>
+      <c r="E306" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" s="4">
         <v>45713</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C307" s="3"/>
       <c r="D307" s="3"/>
       <c r="E307" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
@@ -4466,11 +4845,11 @@
         <v>45714</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C308" s="3"/>
       <c r="D308" s="3" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="E308" s="3"/>
     </row>
@@ -4479,23 +4858,23 @@
         <v>45716</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C309" s="3"/>
-      <c r="D309" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E309" s="3"/>
+      <c r="D309" s="3"/>
+      <c r="E309" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>45721</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="E310" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.2">
@@ -4503,10 +4882,10 @@
         <v>45722</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C311" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
@@ -4514,10 +4893,10 @@
         <v>45723</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D312" t="s">
-        <v>151</v>
+        <v>157</v>
+      </c>
+      <c r="E312" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
@@ -4525,10 +4904,10 @@
         <v>45727</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C313" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
@@ -4536,10 +4915,10 @@
         <v>45728</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D314" t="s">
-        <v>143</v>
+        <v>157</v>
+      </c>
+      <c r="D314" s="3" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
@@ -4547,10 +4926,10 @@
         <v>45730</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D315" t="s">
-        <v>151</v>
+        <v>157</v>
+      </c>
+      <c r="E315" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
@@ -4558,10 +4937,10 @@
         <v>45732</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="E316" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
@@ -4569,13 +4948,13 @@
         <v>45742</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D317" t="s">
-        <v>158</v>
+        <v>157</v>
+      </c>
+      <c r="D317" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="E317" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
@@ -4583,10 +4962,10 @@
         <v>45743</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="E318" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
@@ -4594,10 +4973,10 @@
         <v>45697</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
@@ -4605,10 +4984,10 @@
         <v>45698</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.2">
@@ -4616,10 +4995,10 @@
         <v>45706</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.2">
@@ -4627,10 +5006,10 @@
         <v>45713</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.2">
@@ -4638,11 +5017,11 @@
         <v>45693</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C323" s="3"/>
       <c r="D323" s="3" t="s">
-        <v>18</v>
+        <v>149</v>
       </c>
       <c r="E323" s="3"/>
     </row>
@@ -4651,10 +5030,10 @@
         <v>45698</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D324" s="3"/>
       <c r="E324" s="3"/>
@@ -4664,10 +5043,10 @@
         <v>45706</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D325" s="3"/>
       <c r="E325" s="3"/>
@@ -4677,10 +5056,10 @@
         <v>45707</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C326" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D326" s="3"/>
       <c r="E326" s="3"/>
@@ -4690,10 +5069,10 @@
         <v>45726</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C327" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E327" s="3"/>
     </row>
@@ -4702,13 +5081,4109 @@
         <v>45746</v>
       </c>
       <c r="B328" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C328" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A329" s="1">
+        <v>45834</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C329" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A330" s="1">
+        <v>45834</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C330" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A331" s="1">
+        <v>45834</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C331" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A332" s="1">
+        <v>45836</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C332" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A333" s="1">
+        <v>45836</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E333" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A334" s="1">
+        <v>45838</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C334" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D334" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A335" s="1">
+        <v>45838</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C335" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A336" s="1">
+        <v>45838</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C336" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A337" s="1">
+        <v>45838</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C337" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A338" s="1">
+        <v>45838</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C338" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A339" s="1">
+        <v>45838</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C339" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A340" s="1">
+        <v>45838</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C340" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A341" s="1">
+        <v>45838</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C341" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A342" s="1">
+        <v>45838</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C342" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A343" s="1">
+        <v>45838</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C343" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A344" s="1">
+        <v>45840</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D344" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A345" s="1">
+        <v>45840</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C345" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C328" s="3" t="s">
-        <v>162</v>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A346" s="1">
+        <v>45840</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C346" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A347" s="1">
+        <v>45840</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C347" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A348" s="1">
+        <v>45840</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D348" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A349" s="1">
+        <v>45841</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E349" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A350" s="1">
+        <v>45841</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C350" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A351" s="1">
+        <v>45841</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C351" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A352" s="1">
+        <v>45841</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C352" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A353" s="1">
+        <v>45842</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C353" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A354" s="1">
+        <v>45842</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C354" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A355" s="1">
+        <v>45842</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C355" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A356" s="1">
+        <v>45842</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C356" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A357" s="1">
+        <v>45843</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D357" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A358" s="1">
+        <v>45843</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E358" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A359" s="1">
+        <v>45845</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C359" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A360" s="1">
+        <v>45845</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C360" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A361" s="1">
+        <v>45845</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C361" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A362" s="1">
+        <v>45845</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C362" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A363" s="1">
+        <v>45845</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C363" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A364" s="1">
+        <v>45845</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C364" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A365" s="1">
+        <v>45845</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C365" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A366" s="1">
+        <v>45845</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C366" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A367" s="1">
+        <v>45845</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C367" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A368" s="1">
+        <v>45845</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D368" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A369" s="1">
+        <v>45845</v>
+      </c>
+      <c r="B369" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E369" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A370" s="1">
+        <v>45845</v>
+      </c>
+      <c r="B370" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E370" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A371" s="1">
+        <v>45845</v>
+      </c>
+      <c r="B371" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E371" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A372" s="1">
+        <v>45845</v>
+      </c>
+      <c r="B372" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E372" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A373" s="1">
+        <v>45845</v>
+      </c>
+      <c r="B373" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E373" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
+        <v>212</v>
+      </c>
+      <c r="B374" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C374" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A375" t="s">
+        <v>212</v>
+      </c>
+      <c r="B375" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C375" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
+        <v>212</v>
+      </c>
+      <c r="B376" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C376" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
+        <v>212</v>
+      </c>
+      <c r="B377" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C377" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A378" t="s">
+        <v>213</v>
+      </c>
+      <c r="B378" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E378" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A379" t="s">
+        <v>213</v>
+      </c>
+      <c r="B379" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E379" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A380" t="s">
+        <v>213</v>
+      </c>
+      <c r="B380" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E380" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A381" t="s">
+        <v>213</v>
+      </c>
+      <c r="B381" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E381" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
+        <v>213</v>
+      </c>
+      <c r="B382" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C382" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A383" t="s">
+        <v>213</v>
+      </c>
+      <c r="B383" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C383" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A384" t="s">
+        <v>213</v>
+      </c>
+      <c r="B384" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C384" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A385" s="1">
+        <v>45848</v>
+      </c>
+      <c r="B385" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C385" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A386" s="1">
+        <v>45848</v>
+      </c>
+      <c r="B386" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C386" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A387" s="1">
+        <v>45848</v>
+      </c>
+      <c r="B387" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C387" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A388" s="1">
+        <v>45848</v>
+      </c>
+      <c r="B388" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C388" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A389" s="1">
+        <v>45848</v>
+      </c>
+      <c r="B389" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C389" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A390" s="1">
+        <v>45848</v>
+      </c>
+      <c r="B390" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E390" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A391" s="1">
+        <v>45848</v>
+      </c>
+      <c r="B391" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E391" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A392" s="1">
+        <v>45848</v>
+      </c>
+      <c r="B392" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E392" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A393" s="1">
+        <v>45848</v>
+      </c>
+      <c r="B393" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E393" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A394" s="1">
+        <v>45849</v>
+      </c>
+      <c r="B394" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E394" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A395" s="1">
+        <v>45849</v>
+      </c>
+      <c r="B395" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C395" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A396" s="1">
+        <v>45849</v>
+      </c>
+      <c r="B396" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C396" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A397" s="1">
+        <v>45849</v>
+      </c>
+      <c r="B397" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C397" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A398" s="1">
+        <v>45849</v>
+      </c>
+      <c r="B398" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C398" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A399" s="1">
+        <v>45849</v>
+      </c>
+      <c r="B399" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C399" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A400" s="1">
+        <v>45849</v>
+      </c>
+      <c r="B400" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C400" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A401" s="1">
+        <v>45850</v>
+      </c>
+      <c r="B401" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C401" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A402" s="1">
+        <v>45850</v>
+      </c>
+      <c r="B402" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C402" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A403" s="1">
+        <v>45853</v>
+      </c>
+      <c r="B403" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C403" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A404" s="1">
+        <v>45853</v>
+      </c>
+      <c r="B404" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C404" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A405" s="1">
+        <v>45853</v>
+      </c>
+      <c r="B405" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C405" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A406" s="1">
+        <v>45853</v>
+      </c>
+      <c r="B406" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C406" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A407" s="1">
+        <v>45853</v>
+      </c>
+      <c r="B407" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E407" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A408" s="1">
+        <v>45854</v>
+      </c>
+      <c r="B408" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C408" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A409" s="1">
+        <v>45854</v>
+      </c>
+      <c r="B409" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C409" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A410" s="1">
+        <v>45854</v>
+      </c>
+      <c r="B410" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E410" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A411" s="1">
+        <v>45855</v>
+      </c>
+      <c r="B411" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C411" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A412" s="1">
+        <v>45855</v>
+      </c>
+      <c r="B412" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C412" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A413" s="1">
+        <v>45855</v>
+      </c>
+      <c r="B413" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C413" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A414" s="1">
+        <v>45855</v>
+      </c>
+      <c r="B414" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C414" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A415" s="1">
+        <v>45856</v>
+      </c>
+      <c r="B415" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C415" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A416" s="1">
+        <v>45856</v>
+      </c>
+      <c r="B416" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C416" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A417" s="1">
+        <v>45856</v>
+      </c>
+      <c r="B417" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C417" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A418" s="1">
+        <v>45857</v>
+      </c>
+      <c r="B418" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C418" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A419" s="1">
+        <v>45857</v>
+      </c>
+      <c r="B419" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C419" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A420" s="1">
+        <v>45859</v>
+      </c>
+      <c r="B420" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C420" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A421" s="1">
+        <v>45859</v>
+      </c>
+      <c r="B421" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C421" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A422" s="1">
+        <v>45859</v>
+      </c>
+      <c r="B422" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C422" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A423" s="1">
+        <v>45859</v>
+      </c>
+      <c r="B423" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C423" t="s">
+        <v>195</v>
+      </c>
+      <c r="F423" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A424" s="1">
+        <v>45859</v>
+      </c>
+      <c r="B424" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C424" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A425" s="1">
+        <v>45859</v>
+      </c>
+      <c r="B425" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C425" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A426" s="1">
+        <v>45859</v>
+      </c>
+      <c r="B426" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C426" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A427" s="1">
+        <v>45859</v>
+      </c>
+      <c r="B427" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E427" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A428" s="1">
+        <v>45859</v>
+      </c>
+      <c r="B428" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E428" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A429" s="1">
+        <v>45859</v>
+      </c>
+      <c r="B429" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E429" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A430" s="1">
+        <v>45859</v>
+      </c>
+      <c r="B430" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E430" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A431" s="1">
+        <v>45859</v>
+      </c>
+      <c r="B431" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D431" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A432" s="1">
+        <v>45859</v>
+      </c>
+      <c r="B432" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D432" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A433" s="1">
+        <v>45860</v>
+      </c>
+      <c r="B433" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C433" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A434" s="1">
+        <v>45860</v>
+      </c>
+      <c r="B434" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C434" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A435" s="1">
+        <v>45860</v>
+      </c>
+      <c r="B435" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C435" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A436" s="1">
+        <v>45860</v>
+      </c>
+      <c r="B436" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D436" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A437" s="1">
+        <v>45860</v>
+      </c>
+      <c r="B437" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E437" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A438" s="1">
+        <v>45860</v>
+      </c>
+      <c r="B438" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E438" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A439" s="1">
+        <v>45861</v>
+      </c>
+      <c r="B439" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C439" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A440" s="1">
+        <v>45861</v>
+      </c>
+      <c r="B440" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C440" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A441" s="1">
+        <v>45861</v>
+      </c>
+      <c r="B441" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E441" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A442" s="1">
+        <v>45862</v>
+      </c>
+      <c r="B442" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A443" s="1">
+        <v>45862</v>
+      </c>
+      <c r="B443" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C443" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A444" s="1">
+        <v>45862</v>
+      </c>
+      <c r="B444" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C444" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A445" s="1">
+        <v>45862</v>
+      </c>
+      <c r="B445" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C445" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A446" s="1">
+        <v>45863</v>
+      </c>
+      <c r="B446" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D446" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A447" s="1">
+        <v>45866</v>
+      </c>
+      <c r="B447" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C447" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A448" s="1">
+        <v>45866</v>
+      </c>
+      <c r="B448" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C448" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A449" s="1">
+        <v>45866</v>
+      </c>
+      <c r="B449" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C449" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A450" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B450" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C450" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A451" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B451" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C451" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A452" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B452" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C452" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A453" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B453" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C453" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A454" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B454" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C454" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A455" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B455" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C455" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A456" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B456" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C456" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A457" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B457" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C457" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A458" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B458" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C458" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A459" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B459" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C459" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A460" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B460" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C460" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A461" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B461" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C461" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A462" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B462" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E462" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A463" s="1">
+        <v>45869</v>
+      </c>
+      <c r="B463" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C463" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A464" s="1">
+        <v>45869</v>
+      </c>
+      <c r="B464" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C464" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A465" s="1">
+        <v>45869</v>
+      </c>
+      <c r="B465" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C465" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A466" s="1">
+        <v>45869</v>
+      </c>
+      <c r="B466" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C466" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A467" s="1">
+        <v>45869</v>
+      </c>
+      <c r="B467" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E467" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A468" s="1">
+        <v>45869</v>
+      </c>
+      <c r="B468" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E468" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A469" s="1">
+        <v>45869</v>
+      </c>
+      <c r="B469" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E469" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A470" s="1">
+        <v>45870</v>
+      </c>
+      <c r="B470" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C470" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A471" s="1">
+        <v>45870</v>
+      </c>
+      <c r="B471" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C471" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A472" s="1">
+        <v>45870</v>
+      </c>
+      <c r="B472" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C472" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A473" s="1">
+        <v>45870</v>
+      </c>
+      <c r="B473" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C473" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A474" s="1">
+        <v>45870</v>
+      </c>
+      <c r="B474" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C474" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A475" s="1">
+        <v>45870</v>
+      </c>
+      <c r="B475" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C475" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A476" s="1">
+        <v>45870</v>
+      </c>
+      <c r="B476" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D476" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A477" s="1">
+        <v>45870</v>
+      </c>
+      <c r="B477" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E477" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A478" s="1">
+        <v>45870</v>
+      </c>
+      <c r="B478" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E478" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A479" s="1">
+        <v>45871</v>
+      </c>
+      <c r="B479" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E479" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A480" s="1">
+        <v>45871</v>
+      </c>
+      <c r="B480" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E480" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A481" s="1">
+        <v>45871</v>
+      </c>
+      <c r="B481" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E481" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A482" s="1">
+        <v>45871</v>
+      </c>
+      <c r="B482" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E482" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A483" s="1">
+        <v>45871</v>
+      </c>
+      <c r="B483" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E483" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A484" s="1">
+        <v>45871</v>
+      </c>
+      <c r="B484" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E484" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A485" s="1">
+        <v>45871</v>
+      </c>
+      <c r="B485" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E485" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A486" s="1">
+        <v>45871</v>
+      </c>
+      <c r="B486" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E486" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A487" s="1">
+        <v>45871</v>
+      </c>
+      <c r="B487" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E487" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A488" s="1">
+        <v>45871</v>
+      </c>
+      <c r="B488" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E488" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A489" t="s">
+        <v>226</v>
+      </c>
+      <c r="B489" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C489" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A490" t="s">
+        <v>226</v>
+      </c>
+      <c r="B490" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C490" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A491" t="s">
+        <v>226</v>
+      </c>
+      <c r="B491" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C491" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A492" t="s">
+        <v>226</v>
+      </c>
+      <c r="B492" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C492" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A493" t="s">
+        <v>226</v>
+      </c>
+      <c r="B493" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C493" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A494" t="s">
+        <v>226</v>
+      </c>
+      <c r="B494" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C494" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A495" t="s">
+        <v>226</v>
+      </c>
+      <c r="B495" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C495" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A496" t="s">
+        <v>226</v>
+      </c>
+      <c r="B496" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C496" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A497" t="s">
+        <v>226</v>
+      </c>
+      <c r="B497" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C497" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A498" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B498" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C498" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A499" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B499" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C499" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A500" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B500" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C500" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A501" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B501" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C501" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A502" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B502" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C502" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A503" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B503" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C503" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A504" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B504" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C504" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A505" s="1">
+        <v>45877</v>
+      </c>
+      <c r="B505" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E505" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A506" s="1">
+        <v>45879</v>
+      </c>
+      <c r="B506" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C506" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A507" s="1">
+        <v>45879</v>
+      </c>
+      <c r="B507" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C507" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A508" t="s">
+        <v>232</v>
+      </c>
+      <c r="B508" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C508" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A509" t="s">
+        <v>232</v>
+      </c>
+      <c r="B509" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C509" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A510" t="s">
+        <v>232</v>
+      </c>
+      <c r="B510" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D510" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A511" t="s">
+        <v>232</v>
+      </c>
+      <c r="B511" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E511" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A512" s="1">
+        <v>45881</v>
+      </c>
+      <c r="B512" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C512" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A513" s="1">
+        <v>45881</v>
+      </c>
+      <c r="B513" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C513" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A514" s="1">
+        <v>45881</v>
+      </c>
+      <c r="B514" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C514" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A515" s="1">
+        <v>45881</v>
+      </c>
+      <c r="B515" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E515" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A516" s="1">
+        <v>45883</v>
+      </c>
+      <c r="B516" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C516" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A517" s="1">
+        <v>45883</v>
+      </c>
+      <c r="B517" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C517" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A518" s="1">
+        <v>45883</v>
+      </c>
+      <c r="B518" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C518" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A519" s="1">
+        <v>45883</v>
+      </c>
+      <c r="B519" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C519" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A520" s="1">
+        <v>45883</v>
+      </c>
+      <c r="B520" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C520" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A521" s="1">
+        <v>45883</v>
+      </c>
+      <c r="B521" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C521" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A522" s="1">
+        <v>45884</v>
+      </c>
+      <c r="B522" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C522" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A523" s="1">
+        <v>45884</v>
+      </c>
+      <c r="B523" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C523" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A524" s="1">
+        <v>45884</v>
+      </c>
+      <c r="B524" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C524" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A525" s="1">
+        <v>45884</v>
+      </c>
+      <c r="B525" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C525" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A526" s="1">
+        <v>45884</v>
+      </c>
+      <c r="B526" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C526" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A527" s="1">
+        <v>45887</v>
+      </c>
+      <c r="B527" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C527" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A528" s="1">
+        <v>45887</v>
+      </c>
+      <c r="B528" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C528" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A529" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B529" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C529" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A530" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B530" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E530" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A531" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B531" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C531" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A532" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B532" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C532" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A533" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B533" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C533" t="s">
+        <v>245</v>
+      </c>
+      <c r="E533" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A534" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B534" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E534" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A535" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B535" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E535" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A536" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B536" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E536" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A537" s="1">
+        <v>45891</v>
+      </c>
+      <c r="B537" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C537" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A538" s="1">
+        <v>45891</v>
+      </c>
+      <c r="B538" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C538" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A539" s="1">
+        <v>45891</v>
+      </c>
+      <c r="B539" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C539" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A540" s="1">
+        <v>45891</v>
+      </c>
+      <c r="B540" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C540" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A541" s="1">
+        <v>45891</v>
+      </c>
+      <c r="B541" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C541" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="542" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A542" s="1">
+        <v>45891</v>
+      </c>
+      <c r="B542" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C542" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="543" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A543" s="1">
+        <v>45891</v>
+      </c>
+      <c r="B543" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C543" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="544" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A544" s="1">
+        <v>45891</v>
+      </c>
+      <c r="B544" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D544" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="545" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A545" s="1">
+        <v>45891</v>
+      </c>
+      <c r="B545" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E545" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="546" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A546" s="1">
+        <v>45891</v>
+      </c>
+      <c r="B546" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D546" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="547" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A547" s="1">
+        <v>45894</v>
+      </c>
+      <c r="B547" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C547" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="548" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A548" s="1">
+        <v>45894</v>
+      </c>
+      <c r="B548" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C548" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="549" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A549" s="1">
+        <v>45894</v>
+      </c>
+      <c r="B549" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C549" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="550" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A550" s="1">
+        <v>45894</v>
+      </c>
+      <c r="B550" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D550" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="551" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A551" s="1">
+        <v>45894</v>
+      </c>
+      <c r="B551" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D551" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="552" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A552" s="1">
+        <v>45894</v>
+      </c>
+      <c r="B552" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D552" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="553" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A553" s="1">
+        <v>45894</v>
+      </c>
+      <c r="B553" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E553" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="554" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A554" s="1">
+        <v>45894</v>
+      </c>
+      <c r="B554" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D554" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="555" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A555" s="1">
+        <v>45895</v>
+      </c>
+      <c r="B555" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C555" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="556" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A556" s="1">
+        <v>45895</v>
+      </c>
+      <c r="B556" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C556" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="557" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A557" s="1">
+        <v>45895</v>
+      </c>
+      <c r="B557" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C557" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="558" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A558" s="1">
+        <v>45895</v>
+      </c>
+      <c r="B558" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C558" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="559" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A559" s="1">
+        <v>45895</v>
+      </c>
+      <c r="B559" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C559" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="560" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A560" s="1">
+        <v>45895</v>
+      </c>
+      <c r="B560" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C560" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="561" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A561" s="1">
+        <v>45895</v>
+      </c>
+      <c r="B561" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D561" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="562" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A562" s="1">
+        <v>45895</v>
+      </c>
+      <c r="B562" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D562" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="563" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A563" s="1">
+        <v>45896</v>
+      </c>
+      <c r="B563" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C563" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="564" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A564" s="1">
+        <v>45896</v>
+      </c>
+      <c r="B564" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C564" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="565" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A565" s="1">
+        <v>45896</v>
+      </c>
+      <c r="B565" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C565" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="566" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A566" s="1">
+        <v>45896</v>
+      </c>
+      <c r="B566" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C566" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="567" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A567" s="1">
+        <v>45896</v>
+      </c>
+      <c r="B567" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D567" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="568" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A568" s="1">
+        <v>45896</v>
+      </c>
+      <c r="B568" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D568" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="569" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A569" s="1">
+        <v>45896</v>
+      </c>
+      <c r="B569" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E569" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="570" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A570" s="1">
+        <v>45897</v>
+      </c>
+      <c r="B570" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D570" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="571" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A571" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B571" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C571" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="572" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A572" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B572" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C572" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="573" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A573" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B573" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C573" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="574" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A574" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B574" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C574" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="575" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A575" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B575" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C575" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="576" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A576" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B576" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C576" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="577" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A577" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B577" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E577" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="578" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A578" s="1">
+        <v>45901</v>
+      </c>
+      <c r="B578" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C578" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="579" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A579" s="1">
+        <v>45901</v>
+      </c>
+      <c r="B579" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="580" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A580" s="1">
+        <v>45901</v>
+      </c>
+      <c r="B580" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="581" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A581" s="1">
+        <v>45901</v>
+      </c>
+      <c r="B581" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D581" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="582" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A582" s="1">
+        <v>45901</v>
+      </c>
+      <c r="B582" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E582" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="583" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A583" s="1">
+        <v>45901</v>
+      </c>
+      <c r="B583" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D583" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="584" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A584" s="1">
+        <v>45901</v>
+      </c>
+      <c r="B584" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D584" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="585" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A585" s="1">
+        <v>45902</v>
+      </c>
+      <c r="B585" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C585" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="586" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A586" s="1">
+        <v>45902</v>
+      </c>
+      <c r="B586" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C586" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="587" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A587" s="1">
+        <v>45902</v>
+      </c>
+      <c r="B587" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C587" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="588" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A588" s="1">
+        <v>45902</v>
+      </c>
+      <c r="B588" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C588" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="589" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A589" s="1">
+        <v>45902</v>
+      </c>
+      <c r="B589" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C589" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="590" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A590" s="1">
+        <v>45902</v>
+      </c>
+      <c r="B590" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C590" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="591" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A591" s="1">
+        <v>45903</v>
+      </c>
+      <c r="B591" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C591" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="592" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A592" s="1">
+        <v>45903</v>
+      </c>
+      <c r="B592" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C592" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="593" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A593" s="1">
+        <v>45903</v>
+      </c>
+      <c r="B593" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C593" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="594" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A594" s="1">
+        <v>45903</v>
+      </c>
+      <c r="B594" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E594" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="595" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A595" s="1">
+        <v>45903</v>
+      </c>
+      <c r="B595" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D595" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="596" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A596" s="1">
+        <v>45908</v>
+      </c>
+      <c r="B596" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C596" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="597" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A597" s="1">
+        <v>45908</v>
+      </c>
+      <c r="B597" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C597" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="598" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A598" s="1">
+        <v>45908</v>
+      </c>
+      <c r="B598" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C598" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="599" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A599" s="1">
+        <v>45908</v>
+      </c>
+      <c r="B599" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C599" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="600" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A600" s="1">
+        <v>45908</v>
+      </c>
+      <c r="B600" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D600" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="601" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A601" s="1">
+        <v>45909</v>
+      </c>
+      <c r="B601" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C601" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="602" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A602" s="1">
+        <v>45909</v>
+      </c>
+      <c r="B602" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C602" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="603" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A603" s="1">
+        <v>45909</v>
+      </c>
+      <c r="B603" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D603" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="604" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A604" s="1">
+        <v>45912</v>
+      </c>
+      <c r="B604" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C604" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="605" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A605" s="1">
+        <v>45912</v>
+      </c>
+      <c r="B605" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C605" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="606" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A606" s="1">
+        <v>45913</v>
+      </c>
+      <c r="B606" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C606" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="607" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A607" s="1">
+        <v>45913</v>
+      </c>
+      <c r="B607" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C607" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="608" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A608" s="1">
+        <v>45913</v>
+      </c>
+      <c r="B608" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C608" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="609" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A609" s="1">
+        <v>45913</v>
+      </c>
+      <c r="B609" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C609" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="610" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A610" s="1">
+        <v>45880</v>
+      </c>
+      <c r="B610" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C610" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="611" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A611" s="1">
+        <v>45916</v>
+      </c>
+      <c r="B611" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C611" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="612" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A612" s="1">
+        <v>45916</v>
+      </c>
+      <c r="B612" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C612" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="613" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A613" s="1">
+        <v>45916</v>
+      </c>
+      <c r="B613" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C613" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="614" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A614" s="1">
+        <v>45916</v>
+      </c>
+      <c r="B614" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C614" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="615" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A615" s="1">
+        <v>45916</v>
+      </c>
+      <c r="B615" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C615" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="616" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A616" s="1">
+        <v>45916</v>
+      </c>
+      <c r="B616" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E616" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="617" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A617" s="1">
+        <v>45917</v>
+      </c>
+      <c r="B617" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C617" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="618" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A618" s="1">
+        <v>45917</v>
+      </c>
+      <c r="B618" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C618" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="619" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A619" s="1">
+        <v>45917</v>
+      </c>
+      <c r="B619" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C619" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="620" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A620" s="1">
+        <v>45917</v>
+      </c>
+      <c r="B620" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C620" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="621" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A621" s="1">
+        <v>45917</v>
+      </c>
+      <c r="B621" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C621" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="622" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A622" s="1">
+        <v>45917</v>
+      </c>
+      <c r="B622" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C622" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="623" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A623" s="1">
+        <v>45917</v>
+      </c>
+      <c r="B623" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C623" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="624" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A624" s="1">
+        <v>45917</v>
+      </c>
+      <c r="B624" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C624" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="625" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A625" s="1">
+        <v>45917</v>
+      </c>
+      <c r="B625" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E625" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="626" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A626" s="1">
+        <v>45918</v>
+      </c>
+      <c r="B626" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C626" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="627" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A627" s="1">
+        <v>45918</v>
+      </c>
+      <c r="B627" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C627" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="628" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A628" s="1">
+        <v>45918</v>
+      </c>
+      <c r="B628" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C628" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="629" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A629" s="1">
+        <v>45918</v>
+      </c>
+      <c r="B629" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E629" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="630" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A630" s="1">
+        <v>45918</v>
+      </c>
+      <c r="B630" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D630" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="631" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A631" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B631" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D631" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="632" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A632" s="1">
+        <v>45919</v>
+      </c>
+      <c r="B632" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C632" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="633" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A633" s="1">
+        <v>45919</v>
+      </c>
+      <c r="B633" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C633" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="634" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A634" s="1">
+        <v>45919</v>
+      </c>
+      <c r="B634" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C634" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="635" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A635" s="1">
+        <v>45919</v>
+      </c>
+      <c r="B635" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C635" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="636" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A636" s="1">
+        <v>45919</v>
+      </c>
+      <c r="B636" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C636" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="637" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A637" s="1">
+        <v>45919</v>
+      </c>
+      <c r="B637" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C637" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="638" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A638" s="1">
+        <v>45919</v>
+      </c>
+      <c r="B638" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C638" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="639" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A639" s="1">
+        <v>45920</v>
+      </c>
+      <c r="B639" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D639" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="640" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A640" s="1">
+        <v>45920</v>
+      </c>
+      <c r="B640" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D640" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="641" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A641" s="1">
+        <v>45920</v>
+      </c>
+      <c r="B641" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E641" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="642" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A642" s="1">
+        <v>45920</v>
+      </c>
+      <c r="B642" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E642" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="643" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A643" s="1">
+        <v>45921</v>
+      </c>
+      <c r="B643" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C643" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="644" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A644" s="1">
+        <v>45921</v>
+      </c>
+      <c r="B644" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C644" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="645" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A645" s="1">
+        <v>45921</v>
+      </c>
+      <c r="B645" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C645" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="646" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A646" s="1">
+        <v>45921</v>
+      </c>
+      <c r="B646" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C646" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="647" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A647" s="1">
+        <v>45921</v>
+      </c>
+      <c r="B647" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C647" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="648" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A648" s="1">
+        <v>45921</v>
+      </c>
+      <c r="B648" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C648" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="649" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A649" s="1">
+        <v>45923</v>
+      </c>
+      <c r="B649" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C649" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="650" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A650" s="1">
+        <v>45923</v>
+      </c>
+      <c r="B650" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C650" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="651" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A651" s="1">
+        <v>45923</v>
+      </c>
+      <c r="B651" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C651" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="652" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A652" s="1">
+        <v>45923</v>
+      </c>
+      <c r="B652" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C652" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="653" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A653" s="1">
+        <v>45923</v>
+      </c>
+      <c r="B653" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D653" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="654" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A654" s="1">
+        <v>45923</v>
+      </c>
+      <c r="B654" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E654" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="655" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A655" s="1">
+        <v>45924</v>
+      </c>
+      <c r="B655" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C655" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="656" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A656" s="1">
+        <v>45924</v>
+      </c>
+      <c r="B656" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C656" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A657" s="1">
+        <v>45924</v>
+      </c>
+      <c r="B657" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C657" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A658" s="1">
+        <v>45926</v>
+      </c>
+      <c r="B658" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C658" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A659" s="1">
+        <v>45926</v>
+      </c>
+      <c r="B659" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C659" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A660" s="1">
+        <v>45926</v>
+      </c>
+      <c r="B660" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C660" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A661" s="1">
+        <v>45926</v>
+      </c>
+      <c r="B661" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C661" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A662" s="1">
+        <v>45927</v>
+      </c>
+      <c r="B662" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C662" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="663" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A663" s="1">
+        <v>45927</v>
+      </c>
+      <c r="B663" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C663" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A664" s="1">
+        <v>45927</v>
+      </c>
+      <c r="B664" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C664" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A665" s="1">
+        <v>45927</v>
+      </c>
+      <c r="B665" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C665" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A666" s="1">
+        <v>45927</v>
+      </c>
+      <c r="B666" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C666" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A667" s="1">
+        <v>45929</v>
+      </c>
+      <c r="B667" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C667" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A668" s="1">
+        <v>45929</v>
+      </c>
+      <c r="B668" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C668" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="669" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A669" s="1">
+        <v>45929</v>
+      </c>
+      <c r="B669" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C669" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A670" s="1">
+        <v>45929</v>
+      </c>
+      <c r="B670" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C670" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="671" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A671" s="1">
+        <v>45929</v>
+      </c>
+      <c r="B671" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C671" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="672" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A672" s="1">
+        <v>45930</v>
+      </c>
+      <c r="B672" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C672" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="673" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A673" s="1">
+        <v>45930</v>
+      </c>
+      <c r="B673" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C673" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="674" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A674" s="1">
+        <v>45930</v>
+      </c>
+      <c r="B674" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C674" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="675" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A675" s="1">
+        <v>45930</v>
+      </c>
+      <c r="B675" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C675" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="676" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A676" s="1">
+        <v>45930</v>
+      </c>
+      <c r="B676" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C676" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="677" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A677" s="1">
+        <v>45930</v>
+      </c>
+      <c r="B677" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C677" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="678" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A678" s="1">
+        <v>45932</v>
+      </c>
+      <c r="B678" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C678" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="679" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A679" s="1">
+        <v>45932</v>
+      </c>
+      <c r="B679" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C679" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="680" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A680" s="1">
+        <v>45932</v>
+      </c>
+      <c r="B680" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C680" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="681" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A681" s="1">
+        <v>45932</v>
+      </c>
+      <c r="B681" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C681" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="682" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A682" s="1">
+        <v>45932</v>
+      </c>
+      <c r="B682" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C682" t="s">
+        <v>294</v>
+      </c>
+      <c r="D682" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="683" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A683" s="1">
+        <v>45933</v>
+      </c>
+      <c r="B683" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C683" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="684" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A684" s="1">
+        <v>45933</v>
+      </c>
+      <c r="B684" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C684" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="685" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A685" s="1">
+        <v>45933</v>
+      </c>
+      <c r="B685" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C685" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="686" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A686" s="1">
+        <v>45933</v>
+      </c>
+      <c r="B686" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C686" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="687" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A687" s="1">
+        <v>45933</v>
+      </c>
+      <c r="B687" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C687" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="688" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A688" s="1">
+        <v>45933</v>
+      </c>
+      <c r="B688" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C688" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="689" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A689" s="1">
+        <v>45933</v>
+      </c>
+      <c r="B689" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C689" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="690" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A690" s="1">
+        <v>45933</v>
+      </c>
+      <c r="B690" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C690" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="691" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A691" s="1">
+        <v>45933</v>
+      </c>
+      <c r="B691" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C691" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="692" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A692" s="1">
+        <v>45933</v>
+      </c>
+      <c r="B692" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C692" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="693" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A693" s="1">
+        <v>45933</v>
+      </c>
+      <c r="B693" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C693" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="694" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A694" s="1">
+        <v>45933</v>
+      </c>
+      <c r="B694" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C694" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="695" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A695" s="1">
+        <v>45933</v>
+      </c>
+      <c r="B695" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C695" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="696" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A696" s="1">
+        <v>45933</v>
+      </c>
+      <c r="B696" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C696" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="697" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A697" s="1">
+        <v>45938</v>
+      </c>
+      <c r="B697" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C697" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="698" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A698" s="1">
+        <v>45939</v>
+      </c>
+      <c r="B698" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C698" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="699" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A699" s="1">
+        <v>45939</v>
+      </c>
+      <c r="B699" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C699" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="700" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A700" s="1">
+        <v>45939</v>
+      </c>
+      <c r="B700" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C700" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data/Individuals - Training.xlsx
+++ b/data/Individuals - Training.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alberto/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527DAE79-1E09-5747-B4A3-ADFE024C5E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327D964E-92BC-174C-B3D7-905665279F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="20020" xr2:uid="{A2D0A931-C5F6-EF44-8E19-3B892526D62A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="301">
   <si>
     <t>Ryan Andrews</t>
   </si>
@@ -930,6 +930,15 @@
   </si>
   <si>
     <t>INDIVIDUAL TECHNIQUE LONG BALL</t>
+  </si>
+  <si>
+    <t>SPECIFIC LINE DEFENSIVE</t>
+  </si>
+  <si>
+    <t>FINISHING PATTERNS</t>
+  </si>
+  <si>
+    <t>POSITIONING.PLAY IN THE POCKET</t>
   </si>
 </sst>
 </file>
@@ -1319,10 +1328,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D1F4C8-8FC1-6D4C-8100-17BA8EC0B4E7}">
-  <dimension ref="A1:F700"/>
+  <dimension ref="A1:F722"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A662" workbookViewId="0">
-      <selection activeCell="C704" sqref="C704"/>
+    <sheetView tabSelected="1" topLeftCell="A707" workbookViewId="0">
+      <selection activeCell="D725" sqref="D725"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9182,6 +9191,248 @@
         <v>292</v>
       </c>
     </row>
+    <row r="701" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A701" s="1">
+        <v>45943</v>
+      </c>
+      <c r="B701" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C701" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="702" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A702" s="1">
+        <v>45943</v>
+      </c>
+      <c r="B702" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C702" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="703" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A703" s="1">
+        <v>45943</v>
+      </c>
+      <c r="B703" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C703" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="704" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A704" s="1">
+        <v>45943</v>
+      </c>
+      <c r="B704" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C704" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="705" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A705" s="1">
+        <v>45943</v>
+      </c>
+      <c r="B705" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C705" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="706" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A706" s="1">
+        <v>45943</v>
+      </c>
+      <c r="B706" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C706" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="707" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A707" s="1">
+        <v>45943</v>
+      </c>
+      <c r="B707" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C707" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="708" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A708" s="1">
+        <v>45943</v>
+      </c>
+      <c r="B708" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C708" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="709" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A709" s="1">
+        <v>45943</v>
+      </c>
+      <c r="B709" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C709" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="710" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A710" s="1">
+        <v>45943</v>
+      </c>
+      <c r="B710" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C710" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="711" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A711" s="1">
+        <v>45943</v>
+      </c>
+      <c r="B711" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C711" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="712" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A712" s="1">
+        <v>45943</v>
+      </c>
+      <c r="B712" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C712" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="713" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A713" s="1">
+        <v>45943</v>
+      </c>
+      <c r="B713" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C713" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="714" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A714" s="1">
+        <v>45943</v>
+      </c>
+      <c r="B714" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C714" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="715" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A715" s="1">
+        <v>45943</v>
+      </c>
+      <c r="B715" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C715" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="716" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A716" s="1">
+        <v>45943</v>
+      </c>
+      <c r="B716" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C716" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="717" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A717" s="1">
+        <v>45943</v>
+      </c>
+      <c r="B717" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C717" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="718" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A718" s="1">
+        <v>45944</v>
+      </c>
+      <c r="B718" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E718" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="719" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A719" s="1">
+        <v>45944</v>
+      </c>
+      <c r="B719" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C719" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="720" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A720" s="1">
+        <v>45944</v>
+      </c>
+      <c r="B720" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C720" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="721" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A721" s="1">
+        <v>45944</v>
+      </c>
+      <c r="B721" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C721" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="722" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A722" s="1">
+        <v>45944</v>
+      </c>
+      <c r="B722" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C722" t="s">
+        <v>288</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/data/Individuals - Training.xlsx
+++ b/data/Individuals - Training.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alberto/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327D964E-92BC-174C-B3D7-905665279F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE551BC-7078-1D4D-82A1-97E44FAABE67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="20020" xr2:uid="{A2D0A931-C5F6-EF44-8E19-3B892526D62A}"/>
+    <workbookView xWindow="0" yWindow="700" windowWidth="34200" windowHeight="20000" xr2:uid="{A2D0A931-C5F6-EF44-8E19-3B892526D62A}"/>
   </bookViews>
   <sheets>
     <sheet name="Training individuales" sheetId="19" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1653" uniqueCount="321">
   <si>
     <t>Ryan Andrews</t>
   </si>
@@ -939,6 +939,66 @@
   </si>
   <si>
     <t>POSITIONING.PLAY IN THE POCKET</t>
+  </si>
+  <si>
+    <t>REACTIONS SHOT &amp; FINISHING</t>
+  </si>
+  <si>
+    <t>FINISHING TWO TOUCHES COMPETITION</t>
+  </si>
+  <si>
+    <t>PROTECT SPACE &amp; MOVEMENT TO FINISHING</t>
+  </si>
+  <si>
+    <t>IMPROVING LONG BALL (LEFT FOOT)</t>
+  </si>
+  <si>
+    <t>BODY SHAPE &amp; LONG PASS</t>
+  </si>
+  <si>
+    <t>PENETRATE RUN &amp; FINISHING</t>
+  </si>
+  <si>
+    <t>BUILD UP &amp; IMPROVING LEFT FOOT</t>
+  </si>
+  <si>
+    <t>OPPONENT PRESS</t>
+  </si>
+  <si>
+    <t>POSITIONING GAME. PLAY FORWARD. DIFERENT BEHAVIORS PLAY ON POCKET</t>
+  </si>
+  <si>
+    <t>PATTERNS POSITIONAL.IMPROVING TECHNICAL/TACTICAL &amp; CROSS + FINISIHING</t>
+  </si>
+  <si>
+    <t>POST MATCH WBA. AVOID LOSSES</t>
+  </si>
+  <si>
+    <t>OPPONENT COVENTRY</t>
+  </si>
+  <si>
+    <t>PERSONAL INTERVIEW. U20</t>
+  </si>
+  <si>
+    <t>COUNTER ATTACK &amp; FINISHING. 1vs1 (GK)</t>
+  </si>
+  <si>
+    <t>COMPETITIVE FINISHING DRILLS</t>
+  </si>
+  <si>
+    <t>TRAINING NON SQUAD. OFFENSIVE PATTERNS &amp; FINISHING</t>
+  </si>
+  <si>
+    <t>DEFENDER ONE-TWO. BUILD UP CONNECTED WITH 11/9</t>
+  </si>
+  <si>
+    <t>DEFENDER ONE-TWO. BUILD UP CONNECTED WITH 7/9</t>
+  </si>
+  <si>
+    <t>IMPROVING CROSSES 1st POST &amp; 2nd POST</t>
+  </si>
+  <si>
+    <t>ATTACK ON THE BOX &amp; FINISHING</t>
   </si>
 </sst>
 </file>
@@ -1328,10 +1388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D1F4C8-8FC1-6D4C-8100-17BA8EC0B4E7}">
-  <dimension ref="A1:F722"/>
+  <dimension ref="A1:F797"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A707" workbookViewId="0">
-      <selection activeCell="D725" sqref="D725"/>
+    <sheetView tabSelected="1" topLeftCell="A773" workbookViewId="0">
+      <selection activeCell="C804" sqref="C804"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7474,7 +7534,7 @@
       <c r="B544" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D544" t="s">
+      <c r="E544" t="s">
         <v>253</v>
       </c>
     </row>
@@ -7584,7 +7644,7 @@
       <c r="B554" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D554" t="s">
+      <c r="E554" t="s">
         <v>253</v>
       </c>
     </row>
@@ -7897,7 +7957,7 @@
       <c r="B583" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D583" t="s">
+      <c r="E583" t="s">
         <v>247</v>
       </c>
     </row>
@@ -7908,7 +7968,7 @@
       <c r="B584" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D584" t="s">
+      <c r="E584" t="s">
         <v>247</v>
       </c>
     </row>
@@ -9431,6 +9491,831 @@
       </c>
       <c r="C722" t="s">
         <v>288</v>
+      </c>
+    </row>
+    <row r="723" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A723" s="1">
+        <v>45945</v>
+      </c>
+      <c r="B723" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C723" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="724" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A724" s="1">
+        <v>45945</v>
+      </c>
+      <c r="B724" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C724" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="725" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A725" s="1">
+        <v>45945</v>
+      </c>
+      <c r="B725" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C725" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="726" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A726" s="1">
+        <v>45945</v>
+      </c>
+      <c r="B726" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C726" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="727" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A727" s="1">
+        <v>45945</v>
+      </c>
+      <c r="B727" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C727" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="728" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A728" s="1">
+        <v>45945</v>
+      </c>
+      <c r="B728" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C728" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="729" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A729" s="1">
+        <v>45945</v>
+      </c>
+      <c r="B729" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C729" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="730" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A730" s="1">
+        <v>45946</v>
+      </c>
+      <c r="B730" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C730" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="731" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A731" s="1">
+        <v>45946</v>
+      </c>
+      <c r="B731" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C731" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="732" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A732" s="1">
+        <v>45946</v>
+      </c>
+      <c r="B732" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C732" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="733" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A733" s="1">
+        <v>45946</v>
+      </c>
+      <c r="B733" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C733" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="734" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A734" s="1">
+        <v>45946</v>
+      </c>
+      <c r="B734" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C734" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="735" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A735" s="1">
+        <v>45946</v>
+      </c>
+      <c r="B735" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C735" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="736" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A736" s="1">
+        <v>45947</v>
+      </c>
+      <c r="B736" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C736" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="737" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A737" s="1">
+        <v>45949</v>
+      </c>
+      <c r="B737" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C737" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="738" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A738" s="1">
+        <v>45949</v>
+      </c>
+      <c r="B738" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C738" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="739" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A739" s="1">
+        <v>45949</v>
+      </c>
+      <c r="B739" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C739" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="740" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A740" s="1">
+        <v>45949</v>
+      </c>
+      <c r="B740" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C740" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="741" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A741" s="1">
+        <v>45949</v>
+      </c>
+      <c r="B741" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C741" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="742" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A742" s="1">
+        <v>45949</v>
+      </c>
+      <c r="B742" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C742" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="743" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A743" s="1">
+        <v>45950</v>
+      </c>
+      <c r="B743" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C743" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="744" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A744" s="1">
+        <v>45950</v>
+      </c>
+      <c r="B744" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C744" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="745" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A745" s="1">
+        <v>45950</v>
+      </c>
+      <c r="B745" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C745" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="746" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A746" s="1">
+        <v>45950</v>
+      </c>
+      <c r="B746" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E746" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="747" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A747" s="1">
+        <v>45951</v>
+      </c>
+      <c r="B747" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E747" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="748" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A748" s="1">
+        <v>45952</v>
+      </c>
+      <c r="B748" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C748" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="749" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A749" s="1">
+        <v>45952</v>
+      </c>
+      <c r="B749" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C749" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="750" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A750" s="1">
+        <v>45952</v>
+      </c>
+      <c r="B750" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C750" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="751" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A751" s="1">
+        <v>45952</v>
+      </c>
+      <c r="B751" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C751" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="752" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A752" s="1">
+        <v>45952</v>
+      </c>
+      <c r="B752" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C752" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="753" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A753" s="1">
+        <v>45953</v>
+      </c>
+      <c r="B753" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E753" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="754" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A754" s="1">
+        <v>45954</v>
+      </c>
+      <c r="B754" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E754" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="755" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A755" s="1">
+        <v>45959</v>
+      </c>
+      <c r="B755" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C755" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="756" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A756" s="1">
+        <v>45959</v>
+      </c>
+      <c r="B756" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C756" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="757" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A757" s="1">
+        <v>45959</v>
+      </c>
+      <c r="B757" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C757" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="758" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A758" s="1">
+        <v>45959</v>
+      </c>
+      <c r="B758" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C758" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="759" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A759" s="1">
+        <v>45959</v>
+      </c>
+      <c r="B759" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C759" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="760" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A760" s="1">
+        <v>45959</v>
+      </c>
+      <c r="B760" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C760" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="761" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A761" s="1">
+        <v>45959</v>
+      </c>
+      <c r="B761" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C761" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="762" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A762" s="1">
+        <v>45959</v>
+      </c>
+      <c r="B762" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C762" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="763" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A763" s="1">
+        <v>45959</v>
+      </c>
+      <c r="B763" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C763" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="764" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A764" s="1">
+        <v>45959</v>
+      </c>
+      <c r="B764" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C764" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="765" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A765" s="1">
+        <v>45959</v>
+      </c>
+      <c r="B765" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C765" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="766" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A766" s="1">
+        <v>45959</v>
+      </c>
+      <c r="B766" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C766" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="767" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A767" s="1">
+        <v>45959</v>
+      </c>
+      <c r="B767" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C767" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="768" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A768" s="1">
+        <v>45959</v>
+      </c>
+      <c r="B768" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C768" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="769" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A769" s="1">
+        <v>45959</v>
+      </c>
+      <c r="B769" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C769" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="770" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A770" s="1">
+        <v>45959</v>
+      </c>
+      <c r="B770" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C770" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="771" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A771" s="1">
+        <v>45959</v>
+      </c>
+      <c r="B771" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D771" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="772" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A772" s="1">
+        <v>45960</v>
+      </c>
+      <c r="B772" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C772" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="773" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A773" s="1">
+        <v>45960</v>
+      </c>
+      <c r="B773" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C773" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="774" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A774" s="1">
+        <v>45960</v>
+      </c>
+      <c r="B774" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C774" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="775" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A775" s="1">
+        <v>45961</v>
+      </c>
+      <c r="B775" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C775" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="776" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A776" s="1">
+        <v>45961</v>
+      </c>
+      <c r="B776" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C776" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="777" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A777" s="1">
+        <v>45961</v>
+      </c>
+      <c r="B777" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C777" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="778" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A778" s="1">
+        <v>45961</v>
+      </c>
+      <c r="B778" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C778" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="779" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A779" s="1">
+        <v>45961</v>
+      </c>
+      <c r="B779" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C779" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="780" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A780" s="1">
+        <v>45961</v>
+      </c>
+      <c r="B780" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C780" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="781" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A781" s="1">
+        <v>45961</v>
+      </c>
+      <c r="B781" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C781" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="782" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A782" s="1">
+        <v>45961</v>
+      </c>
+      <c r="B782" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C782" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="783" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A783" s="1">
+        <v>45961</v>
+      </c>
+      <c r="B783" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C783" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="784" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A784" s="1">
+        <v>45961</v>
+      </c>
+      <c r="B784" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C784" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="785" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A785" s="1">
+        <v>45961</v>
+      </c>
+      <c r="B785" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C785" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="786" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A786" s="1">
+        <v>45961</v>
+      </c>
+      <c r="B786" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C786" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="787" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A787" s="1">
+        <v>45961</v>
+      </c>
+      <c r="B787" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C787" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="788" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A788" s="1">
+        <v>45962</v>
+      </c>
+      <c r="B788" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C788" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="789" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A789" s="1">
+        <v>45962</v>
+      </c>
+      <c r="B789" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C789" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="790" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A790" s="1">
+        <v>45962</v>
+      </c>
+      <c r="B790" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C790" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="791" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A791" s="1">
+        <v>45962</v>
+      </c>
+      <c r="B791" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C791" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="792" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A792" s="1">
+        <v>45964</v>
+      </c>
+      <c r="B792" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C792" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="793" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A793" s="1">
+        <v>45964</v>
+      </c>
+      <c r="B793" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C793" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="794" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A794" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B794" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C794" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="795" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A795" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B795" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C795" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="796" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A796" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B796" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C796" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="797" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A797" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B797" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C797" t="s">
+        <v>320</v>
       </c>
     </row>
   </sheetData>
